--- a/largest_residuals_v2.xlsx
+++ b/largest_residuals_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,25 +746,35 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
+          <t>Margin</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Vegas_Margin</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>Residual_Abs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7</v>
-      </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -773,64 +783,64 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>70.33333333333333</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>64.65000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>80.09999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>72.40000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="P2" t="n">
-        <v>22.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>86.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>73.76666666666667</v>
+        <v>82.53333333333335</v>
       </c>
       <c r="S2" t="n">
-        <v>68.05</v>
+        <v>85.7</v>
       </c>
       <c r="T2" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="U2" t="n">
-        <v>26.3</v>
+        <v>31.2</v>
       </c>
       <c r="V2" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="W2" t="n">
-        <v>87.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="X2" t="n">
-        <v>14.1</v>
+        <v>21.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>62.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>-18</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
@@ -839,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="AD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
       <c r="AF2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="b">
         <v>0</v>
@@ -863,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="b">
         <v>0</v>
@@ -896,58 +906,64 @@
         <v>0</v>
       </c>
       <c r="AW2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="b">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.3</v>
+        <v>9.9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.3</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.545454545454545</v>
+        <v>9.777777777777777</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.909090909090908</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.6875</v>
+        <v>4.455</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.6745</v>
+        <v>4.088699999999999</v>
       </c>
       <c r="BE2" t="n">
-        <v>473.2</v>
+        <v>612.7</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.00833968279119</v>
+        <v>1.311055779457092</v>
       </c>
       <c r="BG2" t="n">
-        <v>-49.00833968279119</v>
+        <v>-38.31105577945709</v>
       </c>
       <c r="BH2" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BK2" t="n">
-        <v>49.00833968279119</v>
+        <v>-37</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>38.31105577945709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -956,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
         <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -974,61 +990,61 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>62.79999999999999</v>
+        <v>75.83333333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>58.45</v>
+        <v>66.95</v>
       </c>
       <c r="L3" t="n">
-        <v>73.7</v>
+        <v>56.3</v>
       </c>
       <c r="M3" t="n">
-        <v>18.1</v>
+        <v>28.6</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>91</v>
+        <v>74.3</v>
       </c>
       <c r="P3" t="n">
-        <v>18.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.7</v>
+        <v>90</v>
       </c>
       <c r="R3" t="n">
-        <v>71.90000000000001</v>
+        <v>83.93333333333334</v>
       </c>
       <c r="S3" t="n">
-        <v>70.25</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>74.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="U3" t="n">
-        <v>20.9</v>
+        <v>28.6</v>
       </c>
       <c r="V3" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="W3" t="n">
-        <v>61.1</v>
+        <v>79.8</v>
       </c>
       <c r="X3" t="n">
-        <v>24.6</v>
+        <v>21.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>89</v>
+        <v>88.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="b">
         <v>0</v>
@@ -1043,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="AG3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="b">
         <v>0</v>
       </c>
       <c r="AI3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="b">
         <v>0</v>
@@ -1064,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="AN3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" t="b">
         <v>0</v>
@@ -1097,64 +1113,70 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>4.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>7.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="BB3" t="n">
-        <v>4.800000000000001</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.8998</v>
+        <v>3.9438</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.7096</v>
+        <v>4.4514</v>
       </c>
       <c r="BE3" t="n">
-        <v>307.2</v>
+        <v>711</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.2103749087776956</v>
+        <v>2.412099838256836</v>
       </c>
       <c r="BG3" t="n">
-        <v>30.78962509122231</v>
+        <v>-37.41209983825684</v>
       </c>
       <c r="BH3" t="n">
         <v>2020</v>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="BK3" t="n">
-        <v>30.78962509122231</v>
+        <v>-35</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>37.41209983825684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1169,61 +1191,61 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>66.39999999999999</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.05</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>90.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>19.4</v>
+        <v>24.7</v>
       </c>
       <c r="N4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>60.2</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
-        <v>26.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>96.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="R4" t="n">
-        <v>70.63333333333334</v>
+        <v>67.8</v>
       </c>
       <c r="S4" t="n">
-        <v>58.2</v>
+        <v>74</v>
       </c>
       <c r="T4" t="n">
-        <v>80.7</v>
+        <v>79.2</v>
       </c>
       <c r="U4" t="n">
-        <v>26</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="W4" t="n">
-        <v>85</v>
+        <v>78.7</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>20.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="AB4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
@@ -1232,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="b">
         <v>0</v>
@@ -1244,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AI4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="b">
         <v>0</v>
@@ -1253,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="b">
         <v>0</v>
@@ -1292,52 +1314,58 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>-4.800000000000001</v>
+        <v>-6.4</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14.4</v>
+        <v>-3.2</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.199999999999999</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="BB4" t="n">
-        <v>6</v>
+        <v>6.857142857142856</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.7424</v>
+        <v>6.6032</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.986</v>
+        <v>6.2112</v>
       </c>
       <c r="BE4" t="n">
-        <v>565.2</v>
+        <v>827.2</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9264031077517728</v>
+        <v>6.132254600524902</v>
       </c>
       <c r="BG4" t="n">
-        <v>30.07359689224823</v>
+        <v>35.8677453994751</v>
       </c>
       <c r="BH4" t="n">
         <v>2021</v>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="BK4" t="n">
-        <v>30.07359689224823</v>
+        <v>42</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>35.8677453994751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1358,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>67.53333333333333</v>
@@ -1388,34 +1416,34 @@
         <v>100.4</v>
       </c>
       <c r="R5" t="n">
-        <v>62.53333333333334</v>
+        <v>74.7</v>
       </c>
       <c r="S5" t="n">
-        <v>70.45</v>
+        <v>62.65</v>
       </c>
       <c r="T5" t="n">
-        <v>51</v>
+        <v>71.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>24.8</v>
       </c>
       <c r="V5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="W5" t="n">
-        <v>73.5</v>
+        <v>61.7</v>
       </c>
       <c r="X5" t="n">
-        <v>27.9</v>
+        <v>25.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>92.09999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="b">
         <v>0</v>
@@ -1445,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="AK5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="b">
         <v>0</v>
@@ -1454,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="b">
         <v>0</v>
@@ -1487,31 +1515,31 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>-12.6</v>
+        <v>-14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>7.714285714285714</v>
+        <v>7.5</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.2471</v>
+        <v>4.608</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.1185</v>
+        <v>4.351999999999999</v>
       </c>
       <c r="BE5" t="n">
-        <v>446.4</v>
+        <v>498</v>
       </c>
       <c r="BF5" t="n">
-        <v>15.91146805473237</v>
+        <v>4.885912895202637</v>
       </c>
       <c r="BG5" t="n">
-        <v>-29.91146805473237</v>
+        <v>35.11408710479736</v>
       </c>
       <c r="BH5" t="n">
         <v>2021</v>
@@ -1523,16 +1551,22 @@
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="BK5" t="n">
-        <v>29.91146805473237</v>
+        <v>40</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>35.11408710479736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1541,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1553,64 +1587,64 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>65.86666666666666</v>
+        <v>71.26666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>72.75</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>70.2</v>
+        <v>62.6</v>
       </c>
       <c r="M6" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O6" t="n">
-        <v>55.2</v>
+        <v>59.8</v>
       </c>
       <c r="P6" t="n">
-        <v>21.8</v>
+        <v>26.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>69.63333333333334</v>
+        <v>75.83333333333333</v>
       </c>
       <c r="S6" t="n">
-        <v>76.09999999999999</v>
+        <v>66.95</v>
       </c>
       <c r="T6" t="n">
-        <v>82.5</v>
+        <v>56.3</v>
       </c>
       <c r="U6" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="V6" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="W6" t="n">
-        <v>73.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="X6" t="n">
-        <v>20.1</v>
+        <v>28.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>84.7</v>
+        <v>90</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="b">
         <v>0</v>
@@ -1622,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -1643,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="AL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="b">
         <v>0</v>
       </c>
       <c r="AN6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="b">
         <v>0</v>
@@ -1658,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="b">
         <v>0</v>
@@ -1679,55 +1713,61 @@
         <v>0</v>
       </c>
       <c r="AX6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-6.4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>5.714285714285715</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>6.7904</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>6.8704</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>716.8</v>
       </c>
       <c r="BF6" t="n">
-        <v>-10.31505711894519</v>
+        <v>-6.797630310058594</v>
       </c>
       <c r="BG6" t="n">
-        <v>-29.68494288105482</v>
+        <v>-33.20236968994141</v>
       </c>
       <c r="BH6" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="BK6" t="n">
-        <v>29.68494288105482</v>
+        <v>-40</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-12</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>33.20236968994141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1736,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1748,64 +1788,64 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>68.16666666666667</v>
+        <v>62.2</v>
       </c>
       <c r="K7" t="n">
-        <v>58.8</v>
+        <v>76.2</v>
       </c>
       <c r="L7" t="n">
-        <v>54.9</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>18.8</v>
+        <v>17.5</v>
       </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O7" t="n">
-        <v>60.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>24.8</v>
+        <v>21.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="R7" t="n">
-        <v>67.03333333333335</v>
+        <v>76.26666666666667</v>
       </c>
       <c r="S7" t="n">
-        <v>81.90000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="U7" t="n">
-        <v>22.6</v>
+        <v>26.1</v>
       </c>
       <c r="V7" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="W7" t="n">
-        <v>74.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>23.3</v>
+        <v>20.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>98</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
@@ -1829,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="AI7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="b">
         <v>0</v>
@@ -1874,55 +1914,61 @@
         <v>0</v>
       </c>
       <c r="AX7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>1.0812</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>1.4468</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="BF7" t="n">
-        <v>-22.20693546686147</v>
+        <v>-6.409562587738037</v>
       </c>
       <c r="BG7" t="n">
-        <v>29.20693546686147</v>
+        <v>30.40956258773804</v>
       </c>
       <c r="BH7" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="BK7" t="n">
-        <v>29.20693546686147</v>
+        <v>24</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>30.40956258773804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1934,10 +1980,10 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1949,58 +1995,58 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>76.26666666666667</v>
+        <v>77.03333333333335</v>
       </c>
       <c r="K8" t="n">
-        <v>70.5</v>
+        <v>85.25</v>
       </c>
       <c r="L8" t="n">
-        <v>53.8</v>
+        <v>89.5</v>
       </c>
       <c r="M8" t="n">
-        <v>21.1</v>
+        <v>27.2</v>
       </c>
       <c r="N8" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O8" t="n">
-        <v>60.9</v>
+        <v>76.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>17.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>96.7</v>
+        <v>73.3</v>
       </c>
       <c r="R8" t="n">
-        <v>83.93333333333334</v>
+        <v>65.5</v>
       </c>
       <c r="S8" t="n">
-        <v>75.84999999999999</v>
+        <v>69.25</v>
       </c>
       <c r="T8" t="n">
-        <v>82.8</v>
+        <v>80.8</v>
       </c>
       <c r="U8" t="n">
-        <v>28.6</v>
+        <v>19.1</v>
       </c>
       <c r="V8" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="W8" t="n">
-        <v>79.8</v>
+        <v>44.6</v>
       </c>
       <c r="X8" t="n">
-        <v>21.3</v>
+        <v>27.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>88.3</v>
+        <v>101.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>-24</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -2009,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
@@ -2036,22 +2082,22 @@
         <v>0</v>
       </c>
       <c r="AM8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="b">
         <v>0</v>
       </c>
       <c r="AP8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="b">
         <v>0</v>
       </c>
       <c r="AR8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="b">
         <v>0</v>
@@ -2066,58 +2112,64 @@
         <v>0</v>
       </c>
       <c r="AW8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="b">
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>6</v>
+        <v>-1.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.091</v>
+        <v>1.9565</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.6666</v>
+        <v>1.887</v>
       </c>
       <c r="BE8" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="BF8" t="n">
-        <v>-18.84079004248686</v>
+        <v>-0.3270982503890991</v>
       </c>
       <c r="BG8" t="n">
-        <v>28.84079004248686</v>
+        <v>29.3270982503891</v>
       </c>
       <c r="BH8" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="BK8" t="n">
-        <v>28.84079004248686</v>
+        <v>29</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>29.3270982503891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2126,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -2138,67 +2190,67 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>66.83333333333333</v>
+        <v>77.83333333333333</v>
       </c>
       <c r="K9" t="n">
-        <v>87.75</v>
+        <v>75.69999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>90.5</v>
+        <v>74.8</v>
       </c>
       <c r="M9" t="n">
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="N9" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O9" t="n">
-        <v>75.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>21.8</v>
+        <v>16.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="R9" t="n">
-        <v>76.13333333333334</v>
+        <v>69.63333333333334</v>
       </c>
       <c r="S9" t="n">
-        <v>74.84999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>90.90000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="U9" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="V9" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="W9" t="n">
-        <v>65.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>22.1</v>
+        <v>20.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.09999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>-19</v>
+        <v>67</v>
       </c>
       <c r="AA9" t="n">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AB9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="b">
         <v>0</v>
@@ -2216,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="AH9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="b">
         <v>0</v>
@@ -2228,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="b">
         <v>0</v>
@@ -2240,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="AP9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="b">
         <v>0</v>
       </c>
       <c r="AR9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="b">
         <v>0</v>
@@ -2261,58 +2313,64 @@
         <v>0</v>
       </c>
       <c r="AW9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" t="n">
-        <v>-4.8</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.285714285714286</v>
+        <v>5</v>
       </c>
       <c r="BB9" t="n">
-        <v>4.571428571428571</v>
+        <v>3.75</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.0832</v>
+        <v>2.3255</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.9568</v>
+        <v>2.5805</v>
       </c>
       <c r="BE9" t="n">
-        <v>266.4</v>
+        <v>265</v>
       </c>
       <c r="BF9" t="n">
-        <v>-8.395141902761385</v>
+        <v>3.292620658874512</v>
       </c>
       <c r="BG9" t="n">
-        <v>27.39514190276138</v>
+        <v>28.70737934112549</v>
       </c>
       <c r="BH9" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BK9" t="n">
-        <v>27.39514190276138</v>
+        <v>32</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>28.70737934112549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2321,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2333,70 +2391,70 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>81.16666666666667</v>
+        <v>76.36666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>75.40000000000001</v>
+        <v>68.95</v>
       </c>
       <c r="L10" t="n">
-        <v>79.8</v>
+        <v>76</v>
       </c>
       <c r="M10" t="n">
-        <v>25.1</v>
+        <v>29.9</v>
       </c>
       <c r="N10" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O10" t="n">
-        <v>77</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>19.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="R10" t="n">
-        <v>66.83333333333333</v>
+        <v>64.83333333333333</v>
       </c>
       <c r="S10" t="n">
-        <v>66.59999999999999</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>82</v>
+        <v>77.8</v>
       </c>
       <c r="U10" t="n">
-        <v>19.6</v>
+        <v>17.3</v>
       </c>
       <c r="V10" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W10" t="n">
-        <v>78.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="X10" t="n">
-        <v>16.2</v>
+        <v>22.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.8</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>-55</v>
       </c>
       <c r="AB10" t="b">
         <v>0</v>
       </c>
       <c r="AC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2411,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="b">
         <v>0</v>
@@ -2441,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="AR10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="b">
         <v>0</v>
@@ -2462,52 +2520,58 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="BA10" t="n">
-        <v>5</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="BB10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.125</v>
+        <v>5.416600000000001</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.553</v>
+        <v>4.6046</v>
       </c>
       <c r="BE10" t="n">
-        <v>339</v>
+        <v>879.1999999999999</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.5890597702225731</v>
+        <v>8.762614250183105</v>
       </c>
       <c r="BG10" t="n">
-        <v>26.58905977022257</v>
+        <v>28.23738574981689</v>
       </c>
       <c r="BH10" t="n">
         <v>2020</v>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="BK10" t="n">
-        <v>26.58905977022257</v>
+        <v>37</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>28.23738574981689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2516,76 +2580,76 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>73.83333333333334</v>
+        <v>83.10000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>74.8</v>
+        <v>75.7</v>
       </c>
       <c r="L11" t="n">
-        <v>90.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>28.4</v>
+        <v>31.3</v>
       </c>
       <c r="N11" t="n">
         <v>27</v>
       </c>
       <c r="O11" t="n">
-        <v>73.59999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>23.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>69.53333333333333</v>
+        <v>74.60000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>76.25</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="T11" t="n">
-        <v>90.09999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>24.6</v>
+        <v>28.2</v>
       </c>
       <c r="V11" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="W11" t="n">
-        <v>70.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>20.8</v>
+        <v>22.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="AB11" t="b">
         <v>0</v>
@@ -2630,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="AP11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="b">
         <v>0</v>
       </c>
       <c r="AR11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11" t="b">
         <v>0</v>
@@ -2648,43 +2712,43 @@
         <v>0</v>
       </c>
       <c r="AV11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="b">
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>-2</v>
+        <v>3.3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="BA11" t="n">
-        <v>2</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.8</v>
+        <v>5.3592</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.5454</v>
+        <v>4.277900000000001</v>
       </c>
       <c r="BE11" t="n">
-        <v>100</v>
+        <v>480.7</v>
       </c>
       <c r="BF11" t="n">
-        <v>8.120466720519669</v>
+        <v>1.407798647880554</v>
       </c>
       <c r="BG11" t="n">
-        <v>25.87953327948033</v>
+        <v>-27.40779864788055</v>
       </c>
       <c r="BH11" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
@@ -2693,16 +2757,22 @@
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="BK11" t="n">
-        <v>25.87953327948033</v>
+        <v>-26</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>27.40779864788055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2711,76 +2781,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>67.86666666666666</v>
+        <v>62.1</v>
       </c>
       <c r="K12" t="n">
-        <v>80.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>77.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>28.7</v>
+        <v>18.2</v>
       </c>
       <c r="N12" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O12" t="n">
-        <v>71.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="P12" t="n">
-        <v>23.2</v>
+        <v>29.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.2</v>
+        <v>103.2</v>
       </c>
       <c r="R12" t="n">
-        <v>73</v>
+        <v>65.73333333333333</v>
       </c>
       <c r="S12" t="n">
-        <v>76.94999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="T12" t="n">
-        <v>77.8</v>
+        <v>81.5</v>
       </c>
       <c r="U12" t="n">
-        <v>27.1</v>
+        <v>20.1</v>
       </c>
       <c r="V12" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="W12" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="X12" t="n">
-        <v>29.9</v>
+        <v>21.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>95.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>-29</v>
+        <v>-25</v>
       </c>
       <c r="AA12" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="b">
         <v>0</v>
@@ -2801,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="b">
         <v>0</v>
@@ -2822,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="AO12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="b">
         <v>0</v>
       </c>
       <c r="AR12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="b">
         <v>0</v>
@@ -2843,61 +2913,67 @@
         <v>0</v>
       </c>
       <c r="AV12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="b">
         <v>0</v>
       </c>
       <c r="AY12" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>165</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-4.067070484161377</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>27.06707048416138</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="BK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="BL12" t="n">
         <v>-3</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>7.777777777777778</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>440</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>-4.142089114418765</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>25.14208911441877</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-      <c r="BK12" t="n">
-        <v>25.14208911441877</v>
+      <c r="BM12" t="n">
+        <v>27.06707048416138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2909,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2918,64 +2994,64 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>76.36666666666667</v>
+        <v>82.53333333333335</v>
       </c>
       <c r="K13" t="n">
-        <v>68.95</v>
+        <v>85.7</v>
       </c>
       <c r="L13" t="n">
-        <v>76</v>
+        <v>83.3</v>
       </c>
       <c r="M13" t="n">
-        <v>29.9</v>
+        <v>31.2</v>
       </c>
       <c r="N13" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O13" t="n">
-        <v>71.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="P13" t="n">
-        <v>19.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>83</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>64.83333333333333</v>
+        <v>65.56666666666666</v>
       </c>
       <c r="S13" t="n">
-        <v>55.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="T13" t="n">
-        <v>77.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>17.3</v>
+        <v>26.5</v>
       </c>
       <c r="V13" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="W13" t="n">
-        <v>74.3</v>
+        <v>73.5</v>
       </c>
       <c r="X13" t="n">
-        <v>22.4</v>
+        <v>21.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>88</v>
+        <v>90.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>-9</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>-55</v>
+        <v>-27</v>
       </c>
       <c r="AB13" t="b">
         <v>0</v>
@@ -2987,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="b">
         <v>0</v>
@@ -2996,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="AH13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="b">
         <v>0</v>
       </c>
       <c r="AJ13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="b">
         <v>0</v>
@@ -3041,58 +3117,64 @@
         <v>0</v>
       </c>
       <c r="AW13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" t="b">
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-1.4</v>
+        <v>-10.4</v>
       </c>
       <c r="BA13" t="n">
-        <v>9.333333333333332</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.416600000000001</v>
+        <v>5.6238</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.6046</v>
+        <v>4.6826</v>
       </c>
       <c r="BE13" t="n">
-        <v>879.1999999999999</v>
+        <v>565.5</v>
       </c>
       <c r="BF13" t="n">
-        <v>11.98647248038431</v>
+        <v>8.140048027038574</v>
       </c>
       <c r="BG13" t="n">
-        <v>25.01352751961569</v>
+        <v>26.85995197296143</v>
       </c>
       <c r="BH13" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="BK13" t="n">
-        <v>25.01352751961569</v>
+        <v>35</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>26.85995197296143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -3104,85 +3186,85 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>54</v>
+      </c>
+      <c r="L14" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>44</v>
+      </c>
+      <c r="O14" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>64.46666666666665</v>
+      </c>
+      <c r="S14" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="U14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>32</v>
+      </c>
+      <c r="W14" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-33</v>
+      </c>
+      <c r="AA14" t="n">
         <v>11</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="N14" t="n">
-        <v>48</v>
-      </c>
-      <c r="O14" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="P14" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="T14" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="V14" t="n">
-        <v>35</v>
-      </c>
-      <c r="W14" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="X14" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>-54</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
       <c r="AB14" t="b">
         <v>0</v>
       </c>
       <c r="AC14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="b">
         <v>0</v>
@@ -3197,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="b">
         <v>0</v>
@@ -3236,253 +3318,265 @@
         <v>0</v>
       </c>
       <c r="AW14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>-10.4</v>
+        <v>-1.7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-6.5</v>
+        <v>5.1</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.333333333333333</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.454545454545455</v>
+        <v>7.933333333333334</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.968599999999999</v>
+        <v>5.0099</v>
       </c>
       <c r="BD14" t="n">
-        <v>5.4964</v>
+        <v>7.1723</v>
       </c>
       <c r="BE14" t="n">
-        <v>622.6999999999999</v>
+        <v>702.0999999999999</v>
       </c>
       <c r="BF14" t="n">
-        <v>-5.212577504537039</v>
+        <v>-2.208293676376343</v>
       </c>
       <c r="BG14" t="n">
-        <v>-24.78742249546296</v>
+        <v>-25.79170632362366</v>
       </c>
       <c r="BH14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="BK14" t="n">
-        <v>24.78742249546296</v>
+        <v>-28</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>25.79170632362366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>80.19999999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="R15" t="n">
+        <v>64.89999999999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="T15" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>50</v>
+      </c>
+      <c r="W15" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-66</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>-7.199999999999999</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>4.946400000000001</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>4.602</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.6428335905075073</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-25.64283359050751</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
+      </c>
+      <c r="BK15" t="n">
+        <v>-25</v>
+      </c>
+      <c r="BL15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>32</v>
-      </c>
-      <c r="O15" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>66.39999999999999</v>
-      </c>
-      <c r="S15" t="n">
-        <v>66.05</v>
-      </c>
-      <c r="T15" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>48</v>
-      </c>
-      <c r="W15" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>53</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>5.833333333333334</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>4.666666666666666</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>2.6376</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>2.8378</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>292.6</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0.2080505207933494</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>-24.20805052079335</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="BK15" t="n">
-        <v>24.20805052079335</v>
+      <c r="BM15" t="n">
+        <v>25.64283359050751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -3491,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -3503,76 +3597,76 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>76.56666666666666</v>
+        <v>56.46666666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>85.15000000000001</v>
+        <v>64.55</v>
       </c>
       <c r="L16" t="n">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="M16" t="n">
-        <v>30.7</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O16" t="n">
-        <v>64.3</v>
+        <v>58.7</v>
       </c>
       <c r="P16" t="n">
-        <v>27.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.5</v>
+        <v>89</v>
       </c>
       <c r="R16" t="n">
-        <v>69.56666666666666</v>
+        <v>75</v>
       </c>
       <c r="S16" t="n">
-        <v>66.65000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="T16" t="n">
-        <v>69.09999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="U16" t="n">
-        <v>25.3</v>
+        <v>26.1</v>
       </c>
       <c r="V16" t="n">
+        <v>31</v>
+      </c>
+      <c r="W16" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-27</v>
+      </c>
+      <c r="AA16" t="n">
         <v>34</v>
       </c>
-      <c r="W16" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>65</v>
-      </c>
       <c r="AB16" t="b">
         <v>0</v>
       </c>
       <c r="AC16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="b">
         <v>0</v>
@@ -3593,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" t="b">
         <v>0</v>
@@ -3623,61 +3717,67 @@
         <v>0</v>
       </c>
       <c r="AV16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="b">
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>11.9</v>
+        <v>4.2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11.9</v>
+        <v>15.4</v>
       </c>
       <c r="BA16" t="n">
-        <v>11.33333333333333</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="BB16" t="n">
-        <v>9.066666666666666</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="BC16" t="n">
-        <v>7.192699999999999</v>
+        <v>5.439</v>
       </c>
       <c r="BD16" t="n">
-        <v>7.014200000000001</v>
+        <v>6.4134</v>
       </c>
       <c r="BE16" t="n">
-        <v>834.7</v>
+        <v>652.4</v>
       </c>
       <c r="BF16" t="n">
-        <v>6.984813005656269</v>
+        <v>-0.3973540961742401</v>
       </c>
       <c r="BG16" t="n">
-        <v>24.01518699434373</v>
+        <v>-25.60264590382576</v>
       </c>
       <c r="BH16" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="BK16" t="n">
-        <v>24.01518699434373</v>
+        <v>-26</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>25.60264590382576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -3686,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -3701,58 +3801,58 @@
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>78.36666666666667</v>
+        <v>72.80000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>76.55</v>
+        <v>68.05</v>
       </c>
       <c r="L17" t="n">
-        <v>59.9</v>
+        <v>90.2</v>
       </c>
       <c r="M17" t="n">
-        <v>26.5</v>
+        <v>19.4</v>
       </c>
       <c r="N17" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O17" t="n">
-        <v>76.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="P17" t="n">
-        <v>21.8</v>
+        <v>20.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="R17" t="n">
-        <v>62.1</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="S17" t="n">
-        <v>78.09999999999999</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="T17" t="n">
-        <v>91.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="U17" t="n">
-        <v>18.2</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="W17" t="n">
-        <v>46.1</v>
+        <v>60.5</v>
       </c>
       <c r="X17" t="n">
-        <v>29.6</v>
+        <v>22.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>103.2</v>
+        <v>95.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AA17" t="n">
         <v>-2</v>
@@ -3770,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="AF17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="b">
         <v>0</v>
@@ -3794,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AN17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="b">
         <v>0</v>
@@ -3821,136 +3921,142 @@
         <v>0</v>
       </c>
       <c r="AW17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>-3.6</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
       <c r="BA17" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
-        <v>3.6</v>
+        <v>7.875</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.5266</v>
+        <v>7.0398</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.3016</v>
+        <v>7.2342</v>
       </c>
       <c r="BE17" t="n">
-        <v>434.4</v>
+        <v>752.4</v>
       </c>
       <c r="BF17" t="n">
-        <v>6.775506286465532</v>
+        <v>5.712525367736816</v>
       </c>
       <c r="BG17" t="n">
-        <v>-23.77550628646553</v>
+        <v>25.28747463226318</v>
       </c>
       <c r="BH17" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="BK17" t="n">
-        <v>23.77550628646553</v>
+        <v>31</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>25.28747463226318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
-      </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>71.76666666666667</v>
+        <v>59.43333333333334</v>
       </c>
       <c r="K18" t="n">
-        <v>69.09999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>69.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>21.4</v>
+        <v>17.4</v>
       </c>
       <c r="N18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O18" t="n">
-        <v>75.8</v>
+        <v>85.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.4</v>
+        <v>18.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.5</v>
+        <v>80.5</v>
       </c>
       <c r="R18" t="n">
-        <v>72.80000000000001</v>
+        <v>73.10000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>68.05</v>
+        <v>61.8</v>
       </c>
       <c r="T18" t="n">
-        <v>90.2</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>23</v>
       </c>
       <c r="V18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W18" t="n">
-        <v>71.7</v>
+        <v>60.5</v>
       </c>
       <c r="X18" t="n">
-        <v>20.3</v>
+        <v>22.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>83.8</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="n">
-        <v>-42</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="b">
         <v>0</v>
@@ -3980,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="AK18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="b">
         <v>0</v>
@@ -3989,19 +4095,19 @@
         <v>0</v>
       </c>
       <c r="AN18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="b">
         <v>0</v>
       </c>
       <c r="AP18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="b">
         <v>0</v>
       </c>
       <c r="AR18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="b">
         <v>0</v>
@@ -4022,52 +4128,58 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>-6.5</v>
+        <v>3.6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.25</v>
+        <v>5.142857142857142</v>
       </c>
       <c r="BB18" t="n">
-        <v>2.5</v>
+        <v>3.857142857142856</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.9355</v>
+        <v>2.0691</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.9165</v>
+        <v>3.6945</v>
       </c>
       <c r="BE18" t="n">
-        <v>296.5</v>
+        <v>486</v>
       </c>
       <c r="BF18" t="n">
-        <v>-10.24438489347253</v>
+        <v>4.028532981872559</v>
       </c>
       <c r="BG18" t="n">
-        <v>-23.75561510652746</v>
+        <v>-25.02853298187256</v>
       </c>
       <c r="BH18" t="n">
         <v>2023</v>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="BK18" t="n">
-        <v>23.75561510652746</v>
+        <v>-21</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>25.02853298187256</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4079,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4088,64 +4200,64 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>77.83333333333333</v>
+        <v>82.53333333333333</v>
       </c>
       <c r="K19" t="n">
-        <v>75.69999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>74.8</v>
+        <v>73.8</v>
       </c>
       <c r="M19" t="n">
-        <v>26.5</v>
+        <v>29.6</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O19" t="n">
-        <v>84.09999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="P19" t="n">
-        <v>16.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>76.26666666666667</v>
+        <v>70.63333333333334</v>
       </c>
       <c r="S19" t="n">
-        <v>69.90000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="T19" t="n">
-        <v>79</v>
+        <v>80.7</v>
       </c>
       <c r="U19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="V19" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="W19" t="n">
-        <v>74.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="X19" t="n">
-        <v>20.1</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="AA19" t="n">
-        <v>-6</v>
+        <v>-36</v>
       </c>
       <c r="AB19" t="b">
         <v>0</v>
@@ -4154,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
@@ -4166,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AH19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="b">
         <v>1</v>
@@ -4208,61 +4320,67 @@
         <v>0</v>
       </c>
       <c r="AV19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" t="b">
         <v>0</v>
       </c>
       <c r="AX19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="BA19" t="n">
-        <v>5.714285714285714</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.6264</v>
+        <v>8.425599999999999</v>
       </c>
       <c r="BD19" t="n">
-        <v>2.6664</v>
+        <v>6.4496</v>
       </c>
       <c r="BE19" t="n">
-        <v>296</v>
+        <v>796.8</v>
       </c>
       <c r="BF19" t="n">
-        <v>9.36094773576654</v>
+        <v>1.502737402915955</v>
       </c>
       <c r="BG19" t="n">
-        <v>-23.36094773576654</v>
+        <v>24.49726259708405</v>
       </c>
       <c r="BH19" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="BK19" t="n">
-        <v>23.36094773576654</v>
+        <v>26</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>24.49726259708405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -4271,82 +4389,82 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>81.63333333333334</v>
+        <v>73.76666666666667</v>
       </c>
       <c r="K20" t="n">
-        <v>66.94999999999999</v>
+        <v>68.05</v>
       </c>
       <c r="L20" t="n">
-        <v>84.8</v>
+        <v>83.5</v>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>26.3</v>
       </c>
       <c r="N20" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O20" t="n">
-        <v>46.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>29</v>
+        <v>14.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.6</v>
+        <v>62.8</v>
       </c>
       <c r="R20" t="n">
-        <v>74.60000000000001</v>
+        <v>76.60000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>82.65000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="T20" t="n">
-        <v>91.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="U20" t="n">
-        <v>28.2</v>
+        <v>25.3</v>
       </c>
       <c r="V20" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="W20" t="n">
-        <v>71.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="X20" t="n">
-        <v>22.6</v>
+        <v>24.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>90.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>-48</v>
+        <v>-1</v>
       </c>
       <c r="AA20" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AB20" t="b">
         <v>0</v>
       </c>
       <c r="AC20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="b">
         <v>0</v>
@@ -4367,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="b">
         <v>0</v>
@@ -4382,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="b">
         <v>0</v>
@@ -4403,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="AV20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="b">
         <v>0</v>
@@ -4412,64 +4530,70 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6.5</v>
+        <v>-1.4</v>
       </c>
       <c r="BA20" t="n">
-        <v>2.363636363636363</v>
+        <v>2.8</v>
       </c>
       <c r="BB20" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="BC20" t="n">
-        <v>5.0505</v>
+        <v>2.8686</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.4093</v>
+        <v>2.9001</v>
       </c>
       <c r="BE20" t="n">
-        <v>577.1999999999999</v>
+        <v>393.4</v>
       </c>
       <c r="BF20" t="n">
-        <v>-8.332710130914363</v>
+        <v>-2.601044178009033</v>
       </c>
       <c r="BG20" t="n">
-        <v>-22.66728986908564</v>
+        <v>-24.39895582199097</v>
       </c>
       <c r="BH20" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="BJ20" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="BK20" t="n">
-        <v>22.66728986908564</v>
+        <v>-27</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>24.39895582199097</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>12</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9</v>
-      </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4478,64 +4602,64 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>73.06666666666668</v>
+        <v>82.53333333333335</v>
       </c>
       <c r="K21" t="n">
-        <v>81.2</v>
+        <v>85.7</v>
       </c>
       <c r="L21" t="n">
-        <v>90.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="M21" t="n">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="N21" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O21" t="n">
-        <v>74.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="P21" t="n">
         <v>21.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>83.10000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="S21" t="n">
-        <v>75.7</v>
+        <v>77.45</v>
       </c>
       <c r="T21" t="n">
-        <v>90.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="U21" t="n">
-        <v>31.3</v>
+        <v>30.1</v>
       </c>
       <c r="V21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="W21" t="n">
-        <v>64.3</v>
+        <v>73.2</v>
       </c>
       <c r="X21" t="n">
-        <v>23.4</v>
+        <v>20.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>86.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="b">
         <v>0</v>
@@ -4547,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="AE21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="b">
         <v>0</v>
       </c>
       <c r="AG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="b">
         <v>0</v>
@@ -4574,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AN21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="b">
         <v>0</v>
@@ -4586,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="b">
         <v>0</v>
@@ -4598,56 +4722,62 @@
         <v>0</v>
       </c>
       <c r="AV21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21" t="b">
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>7.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>4.5996</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>5.8584</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>793.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>-3.352299618950889</v>
+        <v>7.853262901306152</v>
       </c>
       <c r="BG21" t="n">
-        <v>-21.64770038104911</v>
+        <v>-23.85326290130615</v>
       </c>
       <c r="BH21" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="BI21" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BJ21" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="BK21" t="n">
-        <v>21.64770038104911</v>
+        <v>-16</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>23.85326290130615</v>
       </c>
     </row>
     <row r="22">
@@ -4664,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -4673,64 +4803,64 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
       <c r="J22" t="n">
-        <v>84.46666666666665</v>
+        <v>66.83333333333333</v>
       </c>
       <c r="K22" t="n">
-        <v>80.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>65.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="M22" t="n">
-        <v>31.8</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="O22" t="n">
-        <v>71.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>23.1</v>
+        <v>16.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="R22" t="n">
-        <v>75.46666666666667</v>
+        <v>61</v>
       </c>
       <c r="S22" t="n">
-        <v>78.5</v>
+        <v>54.1</v>
       </c>
       <c r="T22" t="n">
-        <v>78.59999999999999</v>
+        <v>60.4</v>
       </c>
       <c r="U22" t="n">
-        <v>26.9</v>
+        <v>19.1</v>
       </c>
       <c r="V22" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="W22" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="X22" t="n">
-        <v>29.7</v>
+        <v>30.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>97</v>
+        <v>101.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="AA22" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="b">
         <v>0</v>
@@ -4745,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="b">
         <v>0</v>
@@ -4766,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="AM22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="b">
         <v>0</v>
@@ -4793,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="AV22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="b">
         <v>0</v>
@@ -4802,52 +4932,58 @@
         <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>6.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>-3.4</v>
+        <v>11.9</v>
       </c>
       <c r="BA22" t="n">
         <v>13.6</v>
       </c>
       <c r="BB22" t="n">
-        <v>7.933333333333334</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="BC22" t="n">
-        <v>7.0907</v>
+        <v>8.6547</v>
       </c>
       <c r="BD22" t="n">
-        <v>6.196499999999999</v>
+        <v>6.7813</v>
       </c>
       <c r="BE22" t="n">
-        <v>1103.3</v>
+        <v>697</v>
       </c>
       <c r="BF22" t="n">
-        <v>5.848361696288061</v>
+        <v>6.253169059753418</v>
       </c>
       <c r="BG22" t="n">
-        <v>21.15163830371194</v>
+        <v>23.74683094024658</v>
       </c>
       <c r="BH22" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BI22" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BJ22" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="BK22" t="n">
-        <v>21.15163830371194</v>
+        <v>30</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>23.74683094024658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -4856,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4868,259 +5004,265 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>73.83333333333334</v>
+      </c>
+      <c r="K23" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="M23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>27</v>
+      </c>
+      <c r="O23" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>69.53333333333333</v>
+      </c>
+      <c r="S23" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="V23" t="n">
+        <v>47</v>
+      </c>
+      <c r="W23" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>82.53333333333333</v>
-      </c>
-      <c r="K23" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="L23" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="M23" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="N23" t="n">
-        <v>24</v>
-      </c>
-      <c r="O23" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="R23" t="n">
-        <v>83.10000000000001</v>
-      </c>
-      <c r="S23" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="T23" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="U23" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="V23" t="n">
-        <v>27</v>
-      </c>
-      <c r="W23" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="X23" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BA23" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BB23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>3.205</v>
+        <v>1.8</v>
       </c>
       <c r="BD23" t="n">
-        <v>2.5</v>
+        <v>0.5454</v>
       </c>
       <c r="BE23" t="n">
-        <v>242.5</v>
+        <v>100</v>
       </c>
       <c r="BF23" t="n">
-        <v>2.073861014862559</v>
+        <v>10.97423362731934</v>
       </c>
       <c r="BG23" t="n">
-        <v>-20.07386101486256</v>
+        <v>23.02576637268066</v>
       </c>
       <c r="BH23" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="BI23" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BJ23" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="BK23" t="n">
-        <v>20.07386101486256</v>
+        <v>34</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>23.02576637268066</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>74.16666666666667</v>
+        <v>63.83333333333334</v>
       </c>
       <c r="K24" t="n">
-        <v>70.95</v>
+        <v>71.05</v>
       </c>
       <c r="L24" t="n">
-        <v>75</v>
+        <v>90.8</v>
       </c>
       <c r="M24" t="n">
-        <v>28.4</v>
+        <v>20.9</v>
       </c>
       <c r="N24" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="O24" t="n">
-        <v>70.5</v>
+        <v>63.6</v>
       </c>
       <c r="P24" t="n">
-        <v>17.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.09999999999999</v>
+        <v>102.4</v>
       </c>
       <c r="R24" t="n">
-        <v>73.7</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="S24" t="n">
-        <v>73.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="T24" t="n">
-        <v>58.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>23.4</v>
+        <v>24.7</v>
       </c>
       <c r="V24" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="W24" t="n">
-        <v>73.3</v>
+        <v>53</v>
       </c>
       <c r="X24" t="n">
-        <v>23.5</v>
+        <v>29.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>95.3</v>
+        <v>100.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AA24" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="b">
         <v>0</v>
@@ -5132,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="b">
         <v>0</v>
@@ -5153,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="b">
         <v>0</v>
@@ -5168,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="b">
         <v>0</v>
@@ -5183,61 +5325,67 @@
         <v>0</v>
       </c>
       <c r="AV24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24" t="b">
         <v>0</v>
       </c>
       <c r="AX24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>5.2</v>
+        <v>-10.8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.8</v>
+        <v>-3.6</v>
       </c>
       <c r="BA24" t="n">
-        <v>2.666666666666667</v>
+        <v>10.125</v>
       </c>
       <c r="BB24" t="n">
-        <v>4</v>
+        <v>12.375</v>
       </c>
       <c r="BC24" t="n">
-        <v>2.0488</v>
+        <v>8.0694</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.8572</v>
+        <v>7.619400000000001</v>
       </c>
       <c r="BE24" t="n">
-        <v>185.2</v>
+        <v>1191.6</v>
       </c>
       <c r="BF24" t="n">
-        <v>8.016094382428788</v>
+        <v>-2.275732040405273</v>
       </c>
       <c r="BG24" t="n">
-        <v>19.98390561757121</v>
+        <v>-22.72426795959473</v>
       </c>
       <c r="BH24" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="BI24" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="BJ24" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BK24" t="n">
-        <v>19.98390561757121</v>
+        <v>-25</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>22.72426795959473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5246,79 +5394,79 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
-        <v>69.63333333333334</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="K25" t="n">
-        <v>76.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="L25" t="n">
-        <v>82.5</v>
+        <v>59.1</v>
       </c>
       <c r="M25" t="n">
-        <v>27.5</v>
+        <v>18.1</v>
       </c>
       <c r="N25" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O25" t="n">
-        <v>73.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="P25" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="R25" t="n">
+        <v>76.26666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="T25" t="n">
+        <v>79</v>
+      </c>
+      <c r="U25" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>44</v>
+      </c>
+      <c r="W25" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="X25" t="n">
         <v>20.1</v>
       </c>
-      <c r="Q25" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="R25" t="n">
-        <v>64.96666666666665</v>
-      </c>
-      <c r="S25" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="T25" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>59</v>
-      </c>
-      <c r="W25" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="X25" t="n">
-        <v>22.6</v>
-      </c>
       <c r="Y25" t="n">
-        <v>90.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>14</v>
+        <v>-31</v>
       </c>
       <c r="AA25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
@@ -5327,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="b">
         <v>0</v>
@@ -5339,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="b">
         <v>0</v>
@@ -5357,16 +5505,16 @@
         <v>0</v>
       </c>
       <c r="AO25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="b">
         <v>0</v>
       </c>
       <c r="AQ25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="b">
         <v>0</v>
@@ -5390,49 +5538,55 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>-2.4</v>
+        <v>12.8</v>
       </c>
       <c r="BA25" t="n">
-        <v>5.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>3.428571428571428</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="BC25" t="n">
-        <v>3.8136</v>
+        <v>5.5584</v>
       </c>
       <c r="BD25" t="n">
-        <v>3.5552</v>
+        <v>5.8752</v>
       </c>
       <c r="BE25" t="n">
-        <v>420.8</v>
+        <v>644.8</v>
       </c>
       <c r="BF25" t="n">
-        <v>3.276051959313151</v>
+        <v>0.7998036742210388</v>
       </c>
       <c r="BG25" t="n">
-        <v>19.72394804068685</v>
+        <v>22.20019632577896</v>
       </c>
       <c r="BH25" t="n">
         <v>2023</v>
       </c>
       <c r="BI25" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="BJ25" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="BK25" t="n">
-        <v>19.72394804068685</v>
+        <v>23</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>22.20019632577896</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5441,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5459,58 +5613,58 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>77.13333333333333</v>
+        <v>76.60000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>61.4</v>
+        <v>75.5</v>
       </c>
       <c r="L26" t="n">
-        <v>86.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="M26" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="N26" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O26" t="n">
-        <v>65</v>
+        <v>89.7</v>
       </c>
       <c r="P26" t="n">
-        <v>21.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>66.13333333333334</v>
+        <v>61</v>
       </c>
       <c r="S26" t="n">
-        <v>71.2</v>
+        <v>54.1</v>
       </c>
       <c r="T26" t="n">
-        <v>91.5</v>
+        <v>60.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.4</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="W26" t="n">
-        <v>81.90000000000001</v>
+        <v>53.3</v>
       </c>
       <c r="X26" t="n">
-        <v>19.7</v>
+        <v>30.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.7</v>
+        <v>101.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="AB26" t="b">
         <v>0</v>
@@ -5549,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AN26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="b">
         <v>0</v>
@@ -5561,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="AR26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="b">
         <v>0</v>
@@ -5576,137 +5730,143 @@
         <v>0</v>
       </c>
       <c r="AW26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" t="b">
         <v>0</v>
       </c>
       <c r="AY26" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="BB26" t="n">
-        <v>2.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="BC26" t="n">
-        <v>2.3863</v>
+        <v>2.3405</v>
       </c>
       <c r="BD26" t="n">
-        <v>2.8875</v>
+        <v>2.347</v>
       </c>
       <c r="BE26" t="n">
-        <v>478.1</v>
+        <v>157.5</v>
       </c>
       <c r="BF26" t="n">
-        <v>-11.71591251060578</v>
+        <v>-3.839033603668213</v>
       </c>
       <c r="BG26" t="n">
-        <v>19.71591251060578</v>
+        <v>-22.16096639633179</v>
       </c>
       <c r="BH26" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="BI26" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="BJ26" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="BK26" t="n">
-        <v>19.71591251060578</v>
+        <v>-26</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>22.16096639633179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75.03333333333335</v>
+      </c>
+      <c r="K27" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="M27" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>42</v>
+      </c>
+      <c r="O27" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>66.39999999999999</v>
+      </c>
+      <c r="S27" t="n">
+        <v>66.05</v>
+      </c>
+      <c r="T27" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>48</v>
+      </c>
+      <c r="W27" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-40</v>
+      </c>
+      <c r="AA27" t="n">
         <v>14</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>71.60000000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>65.25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="M27" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="N27" t="n">
-        <v>29</v>
-      </c>
-      <c r="O27" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="P27" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="R27" t="n">
-        <v>73.76666666666667</v>
-      </c>
-      <c r="S27" t="n">
-        <v>68.05</v>
-      </c>
-      <c r="T27" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="V27" t="n">
-        <v>28</v>
-      </c>
-      <c r="W27" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="X27" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>50</v>
-      </c>
       <c r="AB27" t="b">
         <v>0</v>
       </c>
@@ -5720,16 +5880,16 @@
         <v>0</v>
       </c>
       <c r="AF27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AH27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ27" t="b">
         <v>0</v>
@@ -5756,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="AR27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" t="b">
         <v>0</v>
@@ -5768,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="AV27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27" t="b">
         <v>0</v>
@@ -5777,52 +5937,58 @@
         <v>0</v>
       </c>
       <c r="AY27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.4</v>
+        <v>-2.4</v>
       </c>
       <c r="BA27" t="n">
-        <v>9.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="BC27" t="n">
-        <v>6.539400000000001</v>
+        <v>1.9284</v>
       </c>
       <c r="BD27" t="n">
-        <v>6.0998</v>
+        <v>2.2374</v>
       </c>
       <c r="BE27" t="n">
-        <v>484.4</v>
+        <v>264</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.349073065051957</v>
+        <v>-2.172211408615112</v>
       </c>
       <c r="BG27" t="n">
-        <v>19.65092693494804</v>
+        <v>-20.82778859138489</v>
       </c>
       <c r="BH27" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="BI27" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="BJ27" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="BK27" t="n">
-        <v>19.65092693494804</v>
+        <v>-23</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>20.82778859138489</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5831,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5843,262 +6009,268 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>70.13333333333333</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>61.1</v>
+        <v>82</v>
       </c>
       <c r="L28" t="n">
-        <v>78.8</v>
+        <v>76.8</v>
       </c>
       <c r="M28" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N28" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="O28" t="n">
-        <v>65.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>77.60000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="S28" t="n">
-        <v>68.55</v>
+        <v>77.45</v>
       </c>
       <c r="T28" t="n">
-        <v>72.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24</v>
+        <v>30.1</v>
       </c>
       <c r="V28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="W28" t="n">
-        <v>47.8</v>
+        <v>73.2</v>
       </c>
       <c r="X28" t="n">
-        <v>26.6</v>
+        <v>20.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Z28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>9.333333333333332</v>
+      </c>
+      <c r="BB28" t="n">
         <v>7</v>
       </c>
-      <c r="AA28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>4</v>
-      </c>
       <c r="BC28" t="n">
-        <v>2.1904</v>
+        <v>6.3308</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.8604</v>
+        <v>5.5034</v>
       </c>
       <c r="BE28" t="n">
-        <v>274.8</v>
+        <v>655.1999999999999</v>
       </c>
       <c r="BF28" t="n">
-        <v>-5.478777894384237</v>
+        <v>7.442373752593994</v>
       </c>
       <c r="BG28" t="n">
-        <v>19.47877789438424</v>
+        <v>20.55762624740601</v>
       </c>
       <c r="BH28" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="BI28" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="BJ28" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="BK28" t="n">
-        <v>19.47877789438424</v>
+        <v>28</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>20.55762624740601</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>67.73333333333333</v>
+        <v>82.56666666666668</v>
       </c>
       <c r="K29" t="n">
-        <v>79.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="L29" t="n">
-        <v>87.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="M29" t="n">
-        <v>20.4</v>
+        <v>25.5</v>
       </c>
       <c r="N29" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O29" t="n">
-        <v>63.3</v>
+        <v>64.3</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>89.3</v>
+        <v>94.8</v>
       </c>
       <c r="R29" t="n">
-        <v>73.06666666666668</v>
+        <v>74.36666666666666</v>
       </c>
       <c r="S29" t="n">
-        <v>81.2</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="T29" t="n">
-        <v>90.59999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>30.1</v>
+        <v>25.6</v>
       </c>
       <c r="V29" t="n">
         <v>29</v>
       </c>
       <c r="W29" t="n">
-        <v>74.59999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="X29" t="n">
-        <v>21.1</v>
+        <v>22.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>83.3</v>
+        <v>91.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AA29" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="AB29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
@@ -6134,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="AN29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" t="b">
         <v>0</v>
@@ -6167,247 +6339,259 @@
         <v>0</v>
       </c>
       <c r="AY29" t="n">
-        <v>3</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4.5</v>
+        <v>-4.800000000000001</v>
       </c>
       <c r="BA29" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="BC29" t="n">
-        <v>1.5</v>
+        <v>2.3808</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.9999</v>
+        <v>2.4444</v>
       </c>
       <c r="BE29" t="n">
-        <v>226.5</v>
+        <v>338.4</v>
       </c>
       <c r="BF29" t="n">
-        <v>4.253917609671653</v>
+        <v>-2.651281118392944</v>
       </c>
       <c r="BG29" t="n">
-        <v>-19.25391760967165</v>
+        <v>-20.34871888160706</v>
       </c>
       <c r="BH29" t="n">
         <v>2021</v>
       </c>
       <c r="BI29" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="BJ29" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="BK29" t="n">
-        <v>19.25391760967165</v>
+        <v>-23</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>20.34871888160706</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
         <v>5</v>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>11</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>81.63333333333334</v>
+      </c>
+      <c r="K30" t="n">
+        <v>66.94999999999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>24</v>
+      </c>
+      <c r="N30" t="n">
+        <v>50</v>
+      </c>
+      <c r="O30" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>68.16666666666667</v>
+      </c>
+      <c r="S30" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="V30" t="n">
+        <v>36</v>
+      </c>
+      <c r="W30" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB30" t="n">
         <v>3</v>
       </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>67.23333333333333</v>
-      </c>
-      <c r="K30" t="n">
-        <v>58.95</v>
-      </c>
-      <c r="L30" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>45</v>
-      </c>
-      <c r="O30" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="P30" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>75.83333333333333</v>
-      </c>
-      <c r="S30" t="n">
-        <v>66.95</v>
-      </c>
-      <c r="T30" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="U30" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="V30" t="n">
-        <v>47</v>
-      </c>
-      <c r="W30" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="X30" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>3.75</v>
-      </c>
       <c r="BC30" t="n">
-        <v>1.6965</v>
+        <v>1.7142</v>
       </c>
       <c r="BD30" t="n">
-        <v>2.255</v>
+        <v>1.2414</v>
       </c>
       <c r="BE30" t="n">
-        <v>376.5</v>
+        <v>130.5</v>
       </c>
       <c r="BF30" t="n">
-        <v>-17.69186069149947</v>
+        <v>4.852313995361328</v>
       </c>
       <c r="BG30" t="n">
-        <v>18.69186069149947</v>
+        <v>-19.85231399536133</v>
       </c>
       <c r="BH30" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="BI30" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="BJ30" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="BK30" t="n">
-        <v>18.69186069149947</v>
+        <v>-15</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>-8</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>19.85231399536133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -6419,13 +6603,13 @@
         <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
@@ -6434,58 +6618,58 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>65.86666666666666</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>72.75</v>
+        <v>76.75</v>
       </c>
       <c r="L31" t="n">
-        <v>70.2</v>
+        <v>90.3</v>
       </c>
       <c r="M31" t="n">
-        <v>21.5</v>
+        <v>23.3</v>
       </c>
       <c r="N31" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2</v>
+        <v>74.2</v>
       </c>
       <c r="P31" t="n">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>80.3</v>
+        <v>65.06666666666666</v>
       </c>
       <c r="S31" t="n">
-        <v>79.90000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="T31" t="n">
-        <v>63.3</v>
+        <v>76.7</v>
       </c>
       <c r="U31" t="n">
-        <v>28.1</v>
+        <v>17.5</v>
       </c>
       <c r="V31" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W31" t="n">
-        <v>84</v>
+        <v>67.8</v>
       </c>
       <c r="X31" t="n">
-        <v>20.2</v>
+        <v>22.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>-22</v>
+        <v>-31</v>
       </c>
       <c r="AA31" t="n">
-        <v>-42</v>
+        <v>-60</v>
       </c>
       <c r="AB31" t="b">
         <v>0</v>
@@ -6497,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="b">
         <v>0</v>
@@ -6548,56 +6732,62 @@
         <v>0</v>
       </c>
       <c r="AV31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31" t="b">
         <v>0</v>
       </c>
       <c r="AX31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>10.8</v>
+        <v>-3.4</v>
       </c>
       <c r="AZ31" t="n">
-        <v>-7.2</v>
+        <v>1.7</v>
       </c>
       <c r="BA31" t="n">
-        <v>5.625</v>
+        <v>5.666666666666666</v>
       </c>
       <c r="BB31" t="n">
-        <v>12.375</v>
+        <v>4.533333333333334</v>
       </c>
       <c r="BC31" t="n">
-        <v>5.3082</v>
+        <v>5.8803</v>
       </c>
       <c r="BD31" t="n">
-        <v>8.744400000000001</v>
+        <v>6.480399999999999</v>
       </c>
       <c r="BE31" t="n">
-        <v>871.1999999999999</v>
+        <v>710.5999999999999</v>
       </c>
       <c r="BF31" t="n">
-        <v>-0.7481307586859822</v>
+        <v>6.254959106445312</v>
       </c>
       <c r="BG31" t="n">
-        <v>17.74813075868598</v>
+        <v>19.74504089355469</v>
       </c>
       <c r="BH31" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="BI31" t="inlineStr">
         <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
           <t>New York Giants</t>
         </is>
       </c>
-      <c r="BJ31" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
       <c r="BK31" t="n">
-        <v>17.74813075868598</v>
+        <v>26</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>19.74504089355469</v>
       </c>
     </row>
   </sheetData>

--- a/largest_residuals_v2.xlsx
+++ b/largest_residuals_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM31"/>
+  <dimension ref="A1:BJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,90 +671,75 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Season_2021</t>
+          <t>Week_TO_Margin_Interaction</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Season_2022</t>
+          <t>Away_TO_Margin_Interaction</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Season_2023</t>
+          <t>Week_WinInteraction</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Week_TO_Margin_Interaction</t>
+          <t>Away_WinInteraction</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Away_TO_Margin_Interaction</t>
+          <t>Week_Third_Down</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Week_WinInteraction</t>
+          <t>Away_Third_Down</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Away_WinInteraction</t>
+          <t>Away_Penalty_Yards</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Week_Third_Down</t>
+          <t>Predicted</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Away_Third_Down</t>
+          <t>Residual</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Away_Penalty_Yards</t>
+          <t>Season</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Predicted</t>
+          <t>HomeTeam_y</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Residual</t>
+          <t>AwayTeam_y</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Season</t>
+          <t>Margin</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>HomeTeam_y</t>
+          <t>Vegas_Margin</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>AwayTeam_y</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Margin</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Vegas_Margin</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Residual_Abs</t>
         </is>
@@ -902,62 +887,53 @@
       <c r="AU2" t="b">
         <v>0</v>
       </c>
-      <c r="AV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
+      <c r="AV2" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7.699999999999999</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>9.777777777777777</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.9</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.699999999999999</v>
+        <v>4.455</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.777777777777777</v>
+        <v>4.088699999999999</v>
       </c>
       <c r="BB2" t="n">
-        <v>7.333333333333333</v>
+        <v>612.7</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.455</v>
+        <v>1.311055779457092</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.088699999999999</v>
+        <v>-38.31105577945709</v>
       </c>
       <c r="BE2" t="n">
-        <v>612.7</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1.311055779457092</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>-38.31105577945709</v>
+        <v>2022</v>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Minnesota Vikings</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
       </c>
       <c r="BH2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BK2" t="n">
         <v>-37</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BI2" t="n">
         <v>-2</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BJ2" t="n">
         <v>38.31105577945709</v>
       </c>
     </row>
@@ -1103,62 +1079,53 @@
       <c r="AU3" t="b">
         <v>0</v>
       </c>
-      <c r="AV3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="b">
-        <v>0</v>
+      <c r="AV3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>7.2</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.9</v>
+        <v>3.9438</v>
       </c>
       <c r="BA3" t="n">
-        <v>6.75</v>
+        <v>4.4514</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.428571428571429</v>
+        <v>711</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.9438</v>
+        <v>2.412099838256836</v>
       </c>
       <c r="BD3" t="n">
-        <v>4.4514</v>
+        <v>-37.41209983825684</v>
       </c>
       <c r="BE3" t="n">
-        <v>711</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>2.412099838256836</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>-37.41209983825684</v>
+        <v>2020</v>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>New Orleans Saints</t>
+        </is>
       </c>
       <c r="BH3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="BK3" t="n">
         <v>-35</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BI3" t="n">
         <v>4</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BJ3" t="n">
         <v>37.41209983825684</v>
       </c>
     </row>
@@ -1304,62 +1271,53 @@
       <c r="AU4" t="b">
         <v>0</v>
       </c>
-      <c r="AV4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>0</v>
+      <c r="AV4" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11.42857142857143</v>
       </c>
       <c r="AY4" t="n">
-        <v>-6.4</v>
+        <v>6.857142857142856</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-3.2</v>
+        <v>6.6032</v>
       </c>
       <c r="BA4" t="n">
-        <v>11.42857142857143</v>
+        <v>6.2112</v>
       </c>
       <c r="BB4" t="n">
-        <v>6.857142857142856</v>
+        <v>827.2</v>
       </c>
       <c r="BC4" t="n">
-        <v>6.6032</v>
+        <v>6.132254600524902</v>
       </c>
       <c r="BD4" t="n">
-        <v>6.2112</v>
+        <v>35.8677453994751</v>
       </c>
       <c r="BE4" t="n">
-        <v>827.2</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>6.132254600524902</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>35.8677453994751</v>
+        <v>2021</v>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
       </c>
       <c r="BH4" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="BK4" t="n">
         <v>42</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BI4" t="n">
         <v>10</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BJ4" t="n">
         <v>35.8677453994751</v>
       </c>
     </row>
@@ -1505,62 +1463,53 @@
       <c r="AU5" t="b">
         <v>0</v>
       </c>
-      <c r="AV5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>0</v>
+      <c r="AV5" t="n">
+        <v>-14</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>4.608</v>
       </c>
       <c r="BA5" t="n">
+        <v>4.351999999999999</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>498</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4.885912895202637</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>35.11408710479736</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>Atlanta Falcons</t>
+        </is>
+      </c>
+      <c r="BH5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BI5" t="n">
         <v>7.5</v>
       </c>
-      <c r="BB5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>4.608</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>4.351999999999999</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>498</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>4.885912895202637</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>35.11408710479736</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="BK5" t="n">
-        <v>40</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BM5" t="n">
+      <c r="BJ5" t="n">
         <v>35.11408710479736</v>
       </c>
     </row>
@@ -1706,62 +1655,53 @@
       <c r="AU6" t="b">
         <v>0</v>
       </c>
-      <c r="AV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>0</v>
+      <c r="AV6" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5.714285714285715</v>
       </c>
       <c r="AY6" t="n">
-        <v>-6.4</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6.4</v>
+        <v>6.7904</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.714285714285715</v>
+        <v>6.8704</v>
       </c>
       <c r="BB6" t="n">
-        <v>10.28571428571429</v>
+        <v>716.8</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.7904</v>
+        <v>-6.797630310058594</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.8704</v>
+        <v>-33.20236968994141</v>
       </c>
       <c r="BE6" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>-6.797630310058594</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>-33.20236968994141</v>
+        <v>2020</v>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
       </c>
       <c r="BH6" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="BK6" t="n">
         <v>-40</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BI6" t="n">
         <v>-12</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BJ6" t="n">
         <v>33.20236968994141</v>
       </c>
     </row>
@@ -1907,62 +1847,53 @@
       <c r="AU7" t="b">
         <v>0</v>
       </c>
-      <c r="AV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="b">
-        <v>1</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.333333333333333</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>1.0812</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.333333333333333</v>
+        <v>1.4468</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.333333333333333</v>
+        <v>132</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.0812</v>
+        <v>-6.409562587738037</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.4468</v>
+        <v>30.40956258773804</v>
       </c>
       <c r="BE7" t="n">
-        <v>132</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>-6.409562587738037</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>30.40956258773804</v>
+        <v>2023</v>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Tennessee Titans</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
       </c>
       <c r="BH7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="BK7" t="n">
         <v>24</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BI7" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BJ7" t="n">
         <v>30.40956258773804</v>
       </c>
     </row>
@@ -2108,62 +2039,53 @@
       <c r="AU8" t="b">
         <v>0</v>
       </c>
-      <c r="AV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="b">
-        <v>0</v>
+      <c r="AV8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>-4</v>
+        <v>1.25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-1.5</v>
+        <v>1.9565</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.25</v>
+        <v>1.887</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.25</v>
+        <v>235</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.9565</v>
+        <v>-0.3270982503890991</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.887</v>
+        <v>29.3270982503891</v>
       </c>
       <c r="BE8" t="n">
-        <v>235</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>-0.3270982503890991</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>29.3270982503891</v>
+        <v>2022</v>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
       </c>
       <c r="BH8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="BK8" t="n">
         <v>29</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BI8" t="n">
         <v>3</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BJ8" t="n">
         <v>29.3270982503891</v>
       </c>
     </row>
@@ -2309,62 +2231,53 @@
       <c r="AU9" t="b">
         <v>0</v>
       </c>
-      <c r="AV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="b">
-        <v>1</v>
+      <c r="AV9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11.5</v>
+        <v>2.3255</v>
       </c>
       <c r="BA9" t="n">
-        <v>5</v>
+        <v>2.5805</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.75</v>
+        <v>265</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.3255</v>
+        <v>3.292620658874512</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.5805</v>
+        <v>28.70737934112549</v>
       </c>
       <c r="BE9" t="n">
-        <v>265</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>3.292620658874512</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>28.70737934112549</v>
+        <v>2023</v>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
       </c>
       <c r="BH9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BK9" t="n">
         <v>32</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BI9" t="n">
         <v>3.5</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BJ9" t="n">
         <v>28.70737934112549</v>
       </c>
     </row>
@@ -2510,62 +2423,53 @@
       <c r="AU10" t="b">
         <v>0</v>
       </c>
-      <c r="AV10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="b">
-        <v>0</v>
+      <c r="AV10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9.333333333333332</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-1.4</v>
+        <v>5.416600000000001</v>
       </c>
       <c r="BA10" t="n">
-        <v>9.333333333333332</v>
+        <v>4.6046</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>879.1999999999999</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.416600000000001</v>
+        <v>8.762614250183105</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.6046</v>
+        <v>28.23738574981689</v>
       </c>
       <c r="BE10" t="n">
-        <v>879.1999999999999</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>8.762614250183105</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>28.23738574981689</v>
+        <v>2020</v>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>Seattle Seahawks</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
       </c>
       <c r="BH10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="BK10" t="n">
         <v>37</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BI10" t="n">
         <v>16.5</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BJ10" t="n">
         <v>28.23738574981689</v>
       </c>
     </row>
@@ -2711,62 +2615,53 @@
       <c r="AU11" t="b">
         <v>0</v>
       </c>
-      <c r="AV11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="b">
-        <v>0</v>
+      <c r="AV11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>7.333333333333333</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.4</v>
+        <v>5.3592</v>
       </c>
       <c r="BA11" t="n">
-        <v>7.333333333333333</v>
+        <v>4.277900000000001</v>
       </c>
       <c r="BB11" t="n">
-        <v>5.5</v>
+        <v>480.7</v>
       </c>
       <c r="BC11" t="n">
-        <v>5.3592</v>
+        <v>1.407798647880554</v>
       </c>
       <c r="BD11" t="n">
-        <v>4.277900000000001</v>
+        <v>-27.40779864788055</v>
       </c>
       <c r="BE11" t="n">
-        <v>480.7</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>1.407798647880554</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>-27.40779864788055</v>
+        <v>2021</v>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
       </c>
       <c r="BH11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="BK11" t="n">
         <v>-26</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BI11" t="n">
         <v>7</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BJ11" t="n">
         <v>27.40779864788055</v>
       </c>
     </row>
@@ -2912,62 +2807,53 @@
       <c r="AU12" t="b">
         <v>0</v>
       </c>
-      <c r="AV12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="b">
-        <v>0</v>
+      <c r="AV12" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>-2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>1.855</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.5</v>
+        <v>2.093</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.75</v>
+        <v>165</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.855</v>
+        <v>-4.067070484161377</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.093</v>
+        <v>27.06707048416138</v>
       </c>
       <c r="BE12" t="n">
-        <v>165</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>-4.067070484161377</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>27.06707048416138</v>
+        <v>2022</v>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
       </c>
       <c r="BH12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="BK12" t="n">
         <v>23</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BI12" t="n">
         <v>-3</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BJ12" t="n">
         <v>27.06707048416138</v>
       </c>
     </row>
@@ -3113,62 +2999,53 @@
       <c r="AU13" t="b">
         <v>0</v>
       </c>
-      <c r="AV13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX13" t="b">
-        <v>0</v>
+      <c r="AV13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9.454545454545455</v>
       </c>
       <c r="AY13" t="n">
-        <v>6.5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-10.4</v>
+        <v>5.6238</v>
       </c>
       <c r="BA13" t="n">
-        <v>9.454545454545455</v>
+        <v>4.6826</v>
       </c>
       <c r="BB13" t="n">
-        <v>5.416666666666667</v>
+        <v>565.5</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.6238</v>
+        <v>8.140048027038574</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.6826</v>
+        <v>26.85995197296143</v>
       </c>
       <c r="BE13" t="n">
-        <v>565.5</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>8.140048027038574</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>26.85995197296143</v>
+        <v>2022</v>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
       </c>
       <c r="BH13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="BK13" t="n">
         <v>35</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BI13" t="n">
         <v>11</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BJ13" t="n">
         <v>26.85995197296143</v>
       </c>
     </row>
@@ -3314,62 +3191,53 @@
       <c r="AU14" t="b">
         <v>0</v>
       </c>
-      <c r="AV14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="b">
-        <v>0</v>
+      <c r="AV14" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2.266666666666666</v>
       </c>
       <c r="AY14" t="n">
-        <v>-1.7</v>
+        <v>7.933333333333334</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.1</v>
+        <v>5.0099</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.266666666666666</v>
+        <v>7.1723</v>
       </c>
       <c r="BB14" t="n">
-        <v>7.933333333333334</v>
+        <v>702.0999999999999</v>
       </c>
       <c r="BC14" t="n">
-        <v>5.0099</v>
+        <v>-2.208293676376343</v>
       </c>
       <c r="BD14" t="n">
-        <v>7.1723</v>
+        <v>-25.79170632362366</v>
       </c>
       <c r="BE14" t="n">
-        <v>702.0999999999999</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>-2.208293676376343</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>-25.79170632362366</v>
+        <v>2022</v>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
       </c>
       <c r="BH14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="BK14" t="n">
         <v>-28</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BI14" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BJ14" t="n">
         <v>25.79170632362366</v>
       </c>
     </row>
@@ -3515,62 +3383,53 @@
       <c r="AU15" t="b">
         <v>0</v>
       </c>
-      <c r="AV15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="b">
-        <v>0</v>
+      <c r="AV15" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-7.199999999999999</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>3.6</v>
       </c>
       <c r="AY15" t="n">
-        <v>-14.4</v>
+        <v>3.6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-7.199999999999999</v>
+        <v>4.946400000000001</v>
       </c>
       <c r="BA15" t="n">
-        <v>3.6</v>
+        <v>4.602</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.6</v>
+        <v>514.8</v>
       </c>
       <c r="BC15" t="n">
-        <v>4.946400000000001</v>
+        <v>0.6428335905075073</v>
       </c>
       <c r="BD15" t="n">
-        <v>4.602</v>
+        <v>-25.64283359050751</v>
       </c>
       <c r="BE15" t="n">
-        <v>514.8</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0.6428335905075073</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>-25.64283359050751</v>
+        <v>2020</v>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
       </c>
       <c r="BH15" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="BK15" t="n">
         <v>-25</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BI15" t="n">
         <v>3</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BJ15" t="n">
         <v>25.64283359050751</v>
       </c>
     </row>
@@ -3716,62 +3575,53 @@
       <c r="AU16" t="b">
         <v>0</v>
       </c>
-      <c r="AV16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX16" t="b">
-        <v>0</v>
+      <c r="AV16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8.166666666666668</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.2</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15.4</v>
+        <v>5.439</v>
       </c>
       <c r="BA16" t="n">
-        <v>8.166666666666668</v>
+        <v>6.4134</v>
       </c>
       <c r="BB16" t="n">
-        <v>12.83333333333333</v>
+        <v>652.4</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.439</v>
+        <v>-0.3973540961742401</v>
       </c>
       <c r="BD16" t="n">
-        <v>6.4134</v>
+        <v>-25.60264590382576</v>
       </c>
       <c r="BE16" t="n">
-        <v>652.4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>-0.3973540961742401</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>-25.60264590382576</v>
+        <v>2022</v>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
       </c>
       <c r="BH16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="BK16" t="n">
         <v>-26</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BI16" t="n">
         <v>-7</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BJ16" t="n">
         <v>25.60264590382576</v>
       </c>
     </row>
@@ -3917,62 +3767,53 @@
       <c r="AU17" t="b">
         <v>0</v>
       </c>
-      <c r="AV17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="b">
-        <v>1</v>
+      <c r="AV17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>9</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>7.875</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-10.8</v>
+        <v>7.0398</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>7.2342</v>
       </c>
       <c r="BB17" t="n">
-        <v>7.875</v>
+        <v>752.4</v>
       </c>
       <c r="BC17" t="n">
-        <v>7.0398</v>
+        <v>5.712525367736816</v>
       </c>
       <c r="BD17" t="n">
-        <v>7.2342</v>
+        <v>25.28747463226318</v>
       </c>
       <c r="BE17" t="n">
-        <v>752.4</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>5.712525367736816</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>25.28747463226318</v>
+        <v>2023</v>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>New Orleans Saints</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>Atlanta Falcons</t>
+        </is>
       </c>
       <c r="BH17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="BK17" t="n">
         <v>31</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BI17" t="n">
         <v>3</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BJ17" t="n">
         <v>25.28747463226318</v>
       </c>
     </row>
@@ -4118,62 +3959,53 @@
       <c r="AU18" t="b">
         <v>0</v>
       </c>
-      <c r="AV18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="b">
-        <v>1</v>
+      <c r="AV18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5.142857142857142</v>
       </c>
       <c r="AY18" t="n">
-        <v>3.6</v>
+        <v>3.857142857142856</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8.1</v>
+        <v>2.0691</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.142857142857142</v>
+        <v>3.6945</v>
       </c>
       <c r="BB18" t="n">
-        <v>3.857142857142856</v>
+        <v>486</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.0691</v>
+        <v>4.028532981872559</v>
       </c>
       <c r="BD18" t="n">
-        <v>3.6945</v>
+        <v>-25.02853298187256</v>
       </c>
       <c r="BE18" t="n">
-        <v>486</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>4.028532981872559</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>-25.02853298187256</v>
+        <v>2023</v>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
       </c>
       <c r="BH18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BI18" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="BK18" t="n">
         <v>-21</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BI18" t="n">
         <v>-3</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BJ18" t="n">
         <v>25.02853298187256</v>
       </c>
     </row>
@@ -4319,62 +4151,53 @@
       <c r="AU19" t="b">
         <v>0</v>
       </c>
-      <c r="AV19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="b">
-        <v>0</v>
+      <c r="AV19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11.42857142857143</v>
       </c>
       <c r="AY19" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9.6</v>
+        <v>8.425599999999999</v>
       </c>
       <c r="BA19" t="n">
-        <v>11.42857142857143</v>
+        <v>6.4496</v>
       </c>
       <c r="BB19" t="n">
-        <v>8</v>
+        <v>796.8</v>
       </c>
       <c r="BC19" t="n">
-        <v>8.425599999999999</v>
+        <v>1.502737402915955</v>
       </c>
       <c r="BD19" t="n">
-        <v>6.4496</v>
+        <v>24.49726259708405</v>
       </c>
       <c r="BE19" t="n">
-        <v>796.8</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>1.502737402915955</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>24.49726259708405</v>
+        <v>2021</v>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
       </c>
       <c r="BH19" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI19" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="BK19" t="n">
         <v>26</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BI19" t="n">
         <v>10</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BJ19" t="n">
         <v>24.49726259708405</v>
       </c>
     </row>
@@ -4520,62 +4343,53 @@
       <c r="AU20" t="b">
         <v>0</v>
       </c>
-      <c r="AV20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="b">
-        <v>0</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2.8</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-1.4</v>
+        <v>2.8686</v>
       </c>
       <c r="BA20" t="n">
-        <v>2.8</v>
+        <v>2.9001</v>
       </c>
       <c r="BB20" t="n">
-        <v>3.5</v>
+        <v>393.4</v>
       </c>
       <c r="BC20" t="n">
-        <v>2.8686</v>
+        <v>-2.601044178009033</v>
       </c>
       <c r="BD20" t="n">
-        <v>2.9001</v>
+        <v>-24.39895582199097</v>
       </c>
       <c r="BE20" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>-2.601044178009033</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>-24.39895582199097</v>
+        <v>2020</v>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
       </c>
       <c r="BH20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI20" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BK20" t="n">
         <v>-27</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BI20" t="n">
         <v>3</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BJ20" t="n">
         <v>24.39895582199097</v>
       </c>
     </row>
@@ -4721,13 +4535,13 @@
       <c r="AU21" t="b">
         <v>0</v>
       </c>
-      <c r="AV21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="b">
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
         <v>0</v>
       </c>
       <c r="AY21" t="n">
@@ -4743,40 +4557,31 @@
         <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>7.853262901306152</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>-23.85326290130615</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>7.853262901306152</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>-23.85326290130615</v>
+        <v>2022</v>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
       </c>
       <c r="BH21" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI21" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="BK21" t="n">
         <v>-16</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BI21" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BJ21" t="n">
         <v>23.85326290130615</v>
       </c>
     </row>
@@ -4922,62 +4727,53 @@
       <c r="AU22" t="b">
         <v>0</v>
       </c>
-      <c r="AV22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="b">
-        <v>0</v>
+      <c r="AV22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>13.6</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.7</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11.9</v>
+        <v>8.6547</v>
       </c>
       <c r="BA22" t="n">
-        <v>13.6</v>
+        <v>6.7813</v>
       </c>
       <c r="BB22" t="n">
-        <v>11.33333333333333</v>
+        <v>697</v>
       </c>
       <c r="BC22" t="n">
-        <v>8.6547</v>
+        <v>6.253169059753418</v>
       </c>
       <c r="BD22" t="n">
-        <v>6.7813</v>
+        <v>23.74683094024658</v>
       </c>
       <c r="BE22" t="n">
-        <v>697</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>6.253169059753418</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>23.74683094024658</v>
+        <v>2020</v>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
       </c>
       <c r="BH22" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="BK22" t="n">
         <v>30</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BI22" t="n">
         <v>-3</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BJ22" t="n">
         <v>23.74683094024658</v>
       </c>
     </row>
@@ -5123,62 +4919,53 @@
       <c r="AU23" t="b">
         <v>0</v>
       </c>
-      <c r="AV23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="b">
-        <v>0</v>
+      <c r="AV23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BA23" t="n">
-        <v>2</v>
+        <v>0.5454</v>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.8</v>
+        <v>10.97423362731934</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.5454</v>
+        <v>23.02576637268066</v>
       </c>
       <c r="BE23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>10.97423362731934</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>23.02576637268066</v>
+        <v>2022</v>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>Tennessee Titans</t>
+        </is>
       </c>
       <c r="BH23" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI23" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="BK23" t="n">
         <v>34</v>
       </c>
-      <c r="BL23" t="n">
+      <c r="BI23" t="n">
         <v>10</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BJ23" t="n">
         <v>23.02576637268066</v>
       </c>
     </row>
@@ -5324,62 +5111,53 @@
       <c r="AU24" t="b">
         <v>0</v>
       </c>
-      <c r="AV24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="b">
-        <v>0</v>
+      <c r="AV24" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>10.125</v>
       </c>
       <c r="AY24" t="n">
-        <v>-10.8</v>
+        <v>12.375</v>
       </c>
       <c r="AZ24" t="n">
-        <v>-3.6</v>
+        <v>8.0694</v>
       </c>
       <c r="BA24" t="n">
-        <v>10.125</v>
+        <v>7.619400000000001</v>
       </c>
       <c r="BB24" t="n">
-        <v>12.375</v>
+        <v>1191.6</v>
       </c>
       <c r="BC24" t="n">
-        <v>8.0694</v>
+        <v>-2.275732040405273</v>
       </c>
       <c r="BD24" t="n">
-        <v>7.619400000000001</v>
+        <v>-22.72426795959473</v>
       </c>
       <c r="BE24" t="n">
-        <v>1191.6</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>-2.275732040405273</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>-22.72426795959473</v>
+        <v>2021</v>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
       </c>
       <c r="BH24" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI24" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="BJ24" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="BK24" t="n">
         <v>-25</v>
       </c>
-      <c r="BL24" t="n">
+      <c r="BI24" t="n">
         <v>-6</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BJ24" t="n">
         <v>22.72426795959473</v>
       </c>
     </row>
@@ -5525,62 +5303,53 @@
       <c r="AU25" t="b">
         <v>0</v>
       </c>
-      <c r="AV25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="b">
-        <v>1</v>
+      <c r="AV25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12.8</v>
+        <v>5.5584</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>5.8752</v>
       </c>
       <c r="BB25" t="n">
-        <v>9.142857142857142</v>
+        <v>644.8</v>
       </c>
       <c r="BC25" t="n">
-        <v>5.5584</v>
+        <v>0.7998036742210388</v>
       </c>
       <c r="BD25" t="n">
-        <v>5.8752</v>
+        <v>22.20019632577896</v>
       </c>
       <c r="BE25" t="n">
-        <v>644.8</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0.7998036742210388</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>22.20019632577896</v>
+        <v>2023</v>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
       </c>
       <c r="BH25" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BI25" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="BJ25" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="BK25" t="n">
         <v>23</v>
       </c>
-      <c r="BL25" t="n">
+      <c r="BI25" t="n">
         <v>-3</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BJ25" t="n">
         <v>22.20019632577896</v>
       </c>
     </row>
@@ -5726,62 +5495,53 @@
       <c r="AU26" t="b">
         <v>0</v>
       </c>
-      <c r="AV26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="b">
-        <v>0</v>
+      <c r="AV26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>2.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>2.3405</v>
       </c>
       <c r="BA26" t="n">
-        <v>2.5</v>
+        <v>2.347</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.25</v>
+        <v>157.5</v>
       </c>
       <c r="BC26" t="n">
-        <v>2.3405</v>
+        <v>-3.839033603668213</v>
       </c>
       <c r="BD26" t="n">
-        <v>2.347</v>
+        <v>-22.16096639633179</v>
       </c>
       <c r="BE26" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>-3.839033603668213</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>-22.16096639633179</v>
+        <v>2020</v>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
       </c>
       <c r="BH26" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BI26" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BJ26" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="BK26" t="n">
         <v>-26</v>
       </c>
-      <c r="BL26" t="n">
+      <c r="BI26" t="n">
         <v>7.5</v>
       </c>
-      <c r="BM26" t="n">
+      <c r="BJ26" t="n">
         <v>22.16096639633179</v>
       </c>
     </row>
@@ -5927,62 +5687,53 @@
       <c r="AU27" t="b">
         <v>0</v>
       </c>
-      <c r="AV27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="b">
+      <c r="AV27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AX27" t="n">
         <v>0</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="AZ27" t="n">
-        <v>-2.4</v>
+        <v>1.9284</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>2.2374</v>
       </c>
       <c r="BB27" t="n">
-        <v>3.6</v>
+        <v>264</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.9284</v>
+        <v>-2.172211408615112</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.2374</v>
+        <v>-20.82778859138489</v>
       </c>
       <c r="BE27" t="n">
-        <v>264</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>-2.172211408615112</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>-20.82778859138489</v>
+        <v>2021</v>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
       </c>
       <c r="BH27" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI27" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="BJ27" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="BK27" t="n">
         <v>-23</v>
       </c>
-      <c r="BL27" t="n">
+      <c r="BI27" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BM27" t="n">
+      <c r="BJ27" t="n">
         <v>20.82778859138489</v>
       </c>
     </row>
@@ -6128,62 +5879,53 @@
       <c r="AU28" t="b">
         <v>0</v>
       </c>
-      <c r="AV28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX28" t="b">
-        <v>0</v>
+      <c r="AV28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>9.333333333333332</v>
       </c>
       <c r="AY28" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0</v>
+        <v>6.3308</v>
       </c>
       <c r="BA28" t="n">
-        <v>9.333333333333332</v>
+        <v>5.5034</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>655.1999999999999</v>
       </c>
       <c r="BC28" t="n">
-        <v>6.3308</v>
+        <v>7.442373752593994</v>
       </c>
       <c r="BD28" t="n">
-        <v>5.5034</v>
+        <v>20.55762624740601</v>
       </c>
       <c r="BE28" t="n">
-        <v>655.1999999999999</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>7.442373752593994</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>20.55762624740601</v>
+        <v>2022</v>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
       </c>
       <c r="BH28" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BI28" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BJ28" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="BK28" t="n">
         <v>28</v>
       </c>
-      <c r="BL28" t="n">
+      <c r="BI28" t="n">
         <v>3.5</v>
       </c>
-      <c r="BM28" t="n">
+      <c r="BJ28" t="n">
         <v>20.55762624740601</v>
       </c>
     </row>
@@ -6329,62 +6071,53 @@
       <c r="AU29" t="b">
         <v>0</v>
       </c>
-      <c r="AV29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX29" t="b">
-        <v>0</v>
+      <c r="AV29" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>-4.800000000000001</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3.6</v>
       </c>
       <c r="AY29" t="n">
-        <v>7.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-4.800000000000001</v>
+        <v>2.3808</v>
       </c>
       <c r="BA29" t="n">
-        <v>3.6</v>
+        <v>2.4444</v>
       </c>
       <c r="BB29" t="n">
-        <v>6</v>
+        <v>338.4</v>
       </c>
       <c r="BC29" t="n">
-        <v>2.3808</v>
+        <v>-2.651281118392944</v>
       </c>
       <c r="BD29" t="n">
-        <v>2.4444</v>
+        <v>-20.34871888160706</v>
       </c>
       <c r="BE29" t="n">
-        <v>338.4</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>-2.651281118392944</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>-20.34871888160706</v>
+        <v>2021</v>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
       </c>
       <c r="BH29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI29" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="BJ29" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="BK29" t="n">
         <v>-23</v>
       </c>
-      <c r="BL29" t="n">
+      <c r="BI29" t="n">
         <v>3</v>
       </c>
-      <c r="BM29" t="n">
+      <c r="BJ29" t="n">
         <v>20.34871888160706</v>
       </c>
     </row>
@@ -6530,62 +6263,53 @@
       <c r="AU30" t="b">
         <v>0</v>
       </c>
-      <c r="AV30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="b">
-        <v>0</v>
+      <c r="AV30" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>-4.5</v>
+        <v>3</v>
       </c>
       <c r="AZ30" t="n">
-        <v>-3</v>
+        <v>1.7142</v>
       </c>
       <c r="BA30" t="n">
-        <v>1.5</v>
+        <v>1.2414</v>
       </c>
       <c r="BB30" t="n">
-        <v>3</v>
+        <v>130.5</v>
       </c>
       <c r="BC30" t="n">
-        <v>1.7142</v>
+        <v>4.852313995361328</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.2414</v>
+        <v>-19.85231399536133</v>
       </c>
       <c r="BE30" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>4.852313995361328</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>-19.85231399536133</v>
+        <v>2021</v>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>Carolina Panthers</t>
+        </is>
       </c>
       <c r="BH30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI30" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="BJ30" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="BK30" t="n">
         <v>-15</v>
       </c>
-      <c r="BL30" t="n">
+      <c r="BI30" t="n">
         <v>-8</v>
       </c>
-      <c r="BM30" t="n">
+      <c r="BJ30" t="n">
         <v>19.85231399536133</v>
       </c>
     </row>
@@ -6731,62 +6455,53 @@
       <c r="AU31" t="b">
         <v>0</v>
       </c>
-      <c r="AV31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="b">
-        <v>0</v>
+      <c r="AV31" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5.666666666666666</v>
       </c>
       <c r="AY31" t="n">
-        <v>-3.4</v>
+        <v>4.533333333333334</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.7</v>
+        <v>5.8803</v>
       </c>
       <c r="BA31" t="n">
-        <v>5.666666666666666</v>
+        <v>6.480399999999999</v>
       </c>
       <c r="BB31" t="n">
-        <v>4.533333333333334</v>
+        <v>710.5999999999999</v>
       </c>
       <c r="BC31" t="n">
-        <v>5.8803</v>
+        <v>6.254959106445312</v>
       </c>
       <c r="BD31" t="n">
-        <v>6.480399999999999</v>
+        <v>19.74504089355469</v>
       </c>
       <c r="BE31" t="n">
-        <v>710.5999999999999</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>6.254959106445312</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>19.74504089355469</v>
+        <v>2021</v>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
       </c>
       <c r="BH31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BI31" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-      <c r="BJ31" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="BK31" t="n">
         <v>26</v>
       </c>
-      <c r="BL31" t="n">
+      <c r="BI31" t="n">
         <v>6.5</v>
       </c>
-      <c r="BM31" t="n">
+      <c r="BJ31" t="n">
         <v>19.74504089355469</v>
       </c>
     </row>

--- a/largest_residuals_v2.xlsx
+++ b/largest_residuals_v2.xlsx
@@ -747,7 +747,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -768,64 +768,64 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>73.40000000000001</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>68.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>89.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>62.6</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>25.1</v>
+        <v>29.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="R2" t="n">
-        <v>82.53333333333335</v>
+        <v>67.8</v>
       </c>
       <c r="S2" t="n">
-        <v>85.7</v>
+        <v>74</v>
       </c>
       <c r="T2" t="n">
-        <v>83.3</v>
+        <v>79.2</v>
       </c>
       <c r="U2" t="n">
-        <v>31.2</v>
+        <v>20.9</v>
       </c>
       <c r="V2" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="W2" t="n">
-        <v>69.5</v>
+        <v>78.7</v>
       </c>
       <c r="X2" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="AE2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="b">
         <v>0</v>
@@ -888,53 +888,53 @@
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.9</v>
+        <v>-6.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.699999999999999</v>
+        <v>-3.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.777777777777777</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="AY2" t="n">
-        <v>7.333333333333333</v>
+        <v>6.857142857142856</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.455</v>
+        <v>6.6032</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.088699999999999</v>
+        <v>6.2112</v>
       </c>
       <c r="BB2" t="n">
-        <v>612.7</v>
+        <v>827.2</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.311055779457092</v>
+        <v>3.705725193023682</v>
       </c>
       <c r="BD2" t="n">
-        <v>-38.31105577945709</v>
+        <v>38.29427480697632</v>
       </c>
       <c r="BE2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="BH2" t="n">
-        <v>-37</v>
+        <v>42</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="BJ2" t="n">
-        <v>38.31105577945709</v>
+        <v>38.29427480697632</v>
       </c>
     </row>
     <row r="3">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>711</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.412099838256836</v>
+        <v>2.983379125595093</v>
       </c>
       <c r="BD3" t="n">
-        <v>-37.41209983825684</v>
+        <v>-37.98337912559509</v>
       </c>
       <c r="BE3" t="n">
         <v>2020</v>
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="BJ3" t="n">
-        <v>37.41209983825684</v>
+        <v>37.98337912559509</v>
       </c>
     </row>
     <row r="4">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -1152,64 +1152,64 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>67.53333333333333</v>
+        <v>71.26666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>67.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>91.09999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="M4" t="n">
-        <v>24.7</v>
+        <v>21.3</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>53</v>
+        <v>59.8</v>
       </c>
       <c r="P4" t="n">
-        <v>29.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>100.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>67.8</v>
+        <v>75.83333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>74</v>
+        <v>66.95</v>
       </c>
       <c r="T4" t="n">
-        <v>79.2</v>
+        <v>56.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>28.6</v>
       </c>
       <c r="V4" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W4" t="n">
-        <v>78.7</v>
+        <v>74.3</v>
       </c>
       <c r="X4" t="n">
-        <v>20.6</v>
+        <v>28.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>-60</v>
       </c>
       <c r="AA4" t="n">
-        <v>-7</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="b">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="AE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="AL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="b">
         <v>0</v>
       </c>
       <c r="AN4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="b">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="b">
         <v>0</v>
@@ -1275,50 +1275,50 @@
         <v>-6.4</v>
       </c>
       <c r="AW4" t="n">
-        <v>-3.2</v>
+        <v>6.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.42857142857143</v>
+        <v>5.714285714285715</v>
       </c>
       <c r="AY4" t="n">
-        <v>6.857142857142856</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.6032</v>
+        <v>6.7904</v>
       </c>
       <c r="BA4" t="n">
-        <v>6.2112</v>
+        <v>6.8704</v>
       </c>
       <c r="BB4" t="n">
-        <v>827.2</v>
+        <v>716.8</v>
       </c>
       <c r="BC4" t="n">
-        <v>6.132254600524902</v>
+        <v>-2.345365524291992</v>
       </c>
       <c r="BD4" t="n">
-        <v>35.8677453994751</v>
+        <v>-37.65463447570801</v>
       </c>
       <c r="BE4" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="BH4" t="n">
-        <v>42</v>
+        <v>-40</v>
       </c>
       <c r="BI4" t="n">
-        <v>10</v>
+        <v>-12</v>
       </c>
       <c r="BJ4" t="n">
-        <v>35.8677453994751</v>
+        <v>37.65463447570801</v>
       </c>
     </row>
     <row r="5">
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>498</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.885912895202637</v>
+        <v>2.990989685058594</v>
       </c>
       <c r="BD5" t="n">
-        <v>35.11408710479736</v>
+        <v>37.00901031494141</v>
       </c>
       <c r="BE5" t="n">
         <v>2021</v>
@@ -1510,12 +1510,12 @@
         <v>7.5</v>
       </c>
       <c r="BJ5" t="n">
-        <v>35.11408710479736</v>
+        <v>37.00901031494141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1524,76 +1524,76 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>71.26666666666667</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>67.90000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="L6" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O6" t="n">
         <v>62.6</v>
       </c>
-      <c r="M6" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43</v>
-      </c>
-      <c r="O6" t="n">
-        <v>59.8</v>
-      </c>
       <c r="P6" t="n">
-        <v>26.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>75.83333333333333</v>
+        <v>82.53333333333335</v>
       </c>
       <c r="S6" t="n">
-        <v>66.95</v>
+        <v>85.7</v>
       </c>
       <c r="T6" t="n">
-        <v>56.3</v>
+        <v>83.3</v>
       </c>
       <c r="U6" t="n">
-        <v>28.6</v>
+        <v>31.2</v>
       </c>
       <c r="V6" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="W6" t="n">
-        <v>74.3</v>
+        <v>69.5</v>
       </c>
       <c r="X6" t="n">
-        <v>28.1</v>
+        <v>21.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>90</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>-60</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="b">
         <v>0</v>
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="AL6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" t="b">
         <v>0</v>
       </c>
       <c r="AN6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="b">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="b">
         <v>0</v>
@@ -1656,58 +1656,58 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-6.4</v>
+        <v>9.9</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.4</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.714285714285715</v>
+        <v>9.777777777777777</v>
       </c>
       <c r="AY6" t="n">
-        <v>10.28571428571429</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6.7904</v>
+        <v>4.455</v>
       </c>
       <c r="BA6" t="n">
-        <v>6.8704</v>
+        <v>4.088699999999999</v>
       </c>
       <c r="BB6" t="n">
-        <v>716.8</v>
+        <v>612.7</v>
       </c>
       <c r="BC6" t="n">
-        <v>-6.797630310058594</v>
+        <v>-0.3581197559833527</v>
       </c>
       <c r="BD6" t="n">
-        <v>-33.20236968994141</v>
+        <v>-36.64188024401665</v>
       </c>
       <c r="BE6" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BH6" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="BI6" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>33.20236968994141</v>
+        <v>36.64188024401665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1728,70 +1728,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>62.2</v>
+        <v>76.60000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>76.2</v>
+        <v>75.5</v>
       </c>
       <c r="L7" t="n">
-        <v>90.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="M7" t="n">
-        <v>17.5</v>
+        <v>25.3</v>
       </c>
       <c r="N7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" t="n">
-        <v>75.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="P7" t="n">
-        <v>21.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>93</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>76.26666666666667</v>
+        <v>61</v>
       </c>
       <c r="S7" t="n">
-        <v>69.90000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="T7" t="n">
-        <v>79</v>
+        <v>60.4</v>
       </c>
       <c r="U7" t="n">
-        <v>26.1</v>
+        <v>19.1</v>
       </c>
       <c r="V7" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="W7" t="n">
-        <v>74.40000000000001</v>
+        <v>53.3</v>
       </c>
       <c r="X7" t="n">
-        <v>20.1</v>
+        <v>30.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.09999999999999</v>
+        <v>101.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>-22</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
       </c>
       <c r="AC7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="b">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="AH7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="b">
         <v>0</v>
@@ -1848,58 +1848,58 @@
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.0812</v>
+        <v>2.3405</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.4468</v>
+        <v>2.347</v>
       </c>
       <c r="BB7" t="n">
-        <v>132</v>
+        <v>157.5</v>
       </c>
       <c r="BC7" t="n">
-        <v>-6.409562587738037</v>
+        <v>6.867737770080566</v>
       </c>
       <c r="BD7" t="n">
-        <v>30.40956258773804</v>
+        <v>-32.86773777008057</v>
       </c>
       <c r="BE7" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="BH7" t="n">
-        <v>24</v>
+        <v>-26</v>
       </c>
       <c r="BI7" t="n">
-        <v>-2.5</v>
+        <v>7.5</v>
       </c>
       <c r="BJ7" t="n">
-        <v>30.40956258773804</v>
+        <v>32.86773777008057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1908,76 +1908,76 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>77.03333333333335</v>
+        <v>76.36666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>85.25</v>
+        <v>68.95</v>
       </c>
       <c r="L8" t="n">
-        <v>89.5</v>
+        <v>76</v>
       </c>
       <c r="M8" t="n">
-        <v>27.2</v>
+        <v>29.9</v>
       </c>
       <c r="N8" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O8" t="n">
-        <v>76.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>17.8</v>
+        <v>19.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>73.3</v>
+        <v>83</v>
       </c>
       <c r="R8" t="n">
-        <v>65.5</v>
+        <v>64.83333333333333</v>
       </c>
       <c r="S8" t="n">
-        <v>69.25</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>80.8</v>
+        <v>77.8</v>
       </c>
       <c r="U8" t="n">
-        <v>19.1</v>
+        <v>17.3</v>
       </c>
       <c r="V8" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="W8" t="n">
-        <v>44.6</v>
+        <v>74.3</v>
       </c>
       <c r="X8" t="n">
-        <v>27.5</v>
+        <v>22.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1</v>
+        <v>88</v>
       </c>
       <c r="Z8" t="n">
-        <v>-24</v>
+        <v>-9</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1</v>
+        <v>-55</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="b">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AM8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="b">
         <v>0</v>
@@ -2040,53 +2040,53 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>-4</v>
+        <v>1.4</v>
       </c>
       <c r="AW8" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.25</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.9565</v>
+        <v>5.416600000000001</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.887</v>
+        <v>4.6046</v>
       </c>
       <c r="BB8" t="n">
-        <v>235</v>
+        <v>879.1999999999999</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.3270982503890991</v>
+        <v>4.911964893341064</v>
       </c>
       <c r="BD8" t="n">
-        <v>29.3270982503891</v>
+        <v>32.08803510665894</v>
       </c>
       <c r="BE8" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="BH8" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BI8" t="n">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="BJ8" t="n">
-        <v>29.3270982503891</v>
+        <v>32.08803510665894</v>
       </c>
     </row>
     <row r="9">
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -2253,10 +2253,10 @@
         <v>265</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.292620658874512</v>
+        <v>2.11121678352356</v>
       </c>
       <c r="BD9" t="n">
-        <v>28.70737934112549</v>
+        <v>29.88878321647644</v>
       </c>
       <c r="BE9" t="n">
         <v>2023</v>
@@ -2278,12 +2278,12 @@
         <v>3.5</v>
       </c>
       <c r="BJ9" t="n">
-        <v>28.70737934112549</v>
+        <v>29.88878321647644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2304,70 +2304,70 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>76.36666666666667</v>
+        <v>62.4</v>
       </c>
       <c r="K10" t="n">
-        <v>68.95</v>
+        <v>54</v>
       </c>
       <c r="L10" t="n">
-        <v>76</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>29.9</v>
+        <v>16.5</v>
       </c>
       <c r="N10" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>71.09999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="P10" t="n">
-        <v>19.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>83</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>64.83333333333333</v>
+        <v>64.46666666666665</v>
       </c>
       <c r="S10" t="n">
-        <v>55.90000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>77.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="V10" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="W10" t="n">
-        <v>74.3</v>
+        <v>50.7</v>
       </c>
       <c r="X10" t="n">
-        <v>22.4</v>
+        <v>26.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>88</v>
+        <v>100.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>-9</v>
+        <v>-33</v>
       </c>
       <c r="AA10" t="n">
-        <v>-55</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="b">
         <v>0</v>
       </c>
       <c r="AC10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="AH10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="b">
         <v>0</v>
       </c>
       <c r="AJ10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="b">
         <v>0</v>
@@ -2424,58 +2424,58 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="AW10" t="n">
-        <v>-1.4</v>
+        <v>5.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.333333333333332</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>7.933333333333334</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.416600000000001</v>
+        <v>5.0099</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.6046</v>
+        <v>7.1723</v>
       </c>
       <c r="BB10" t="n">
-        <v>879.1999999999999</v>
+        <v>702.0999999999999</v>
       </c>
       <c r="BC10" t="n">
-        <v>8.762614250183105</v>
+        <v>1.11772096157074</v>
       </c>
       <c r="BD10" t="n">
-        <v>28.23738574981689</v>
+        <v>-29.11772096157074</v>
       </c>
       <c r="BE10" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="BH10" t="n">
-        <v>37</v>
+        <v>-28</v>
       </c>
       <c r="BI10" t="n">
-        <v>16.5</v>
+        <v>-3.5</v>
       </c>
       <c r="BJ10" t="n">
-        <v>28.23738574981689</v>
+        <v>29.11772096157074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2484,76 +2484,76 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.10000000000001</v>
+        <v>82.53333333333335</v>
       </c>
       <c r="K11" t="n">
-        <v>75.7</v>
+        <v>85.7</v>
       </c>
       <c r="L11" t="n">
-        <v>90.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="M11" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="N11" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O11" t="n">
-        <v>64.3</v>
+        <v>69.5</v>
       </c>
       <c r="P11" t="n">
-        <v>23.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>74.60000000000001</v>
+        <v>65.56666666666666</v>
       </c>
       <c r="S11" t="n">
-        <v>82.65000000000001</v>
+        <v>84</v>
       </c>
       <c r="T11" t="n">
-        <v>91.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="V11" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="W11" t="n">
-        <v>71.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="X11" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="Y11" t="n">
         <v>90.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>58</v>
+        <v>-27</v>
       </c>
       <c r="AB11" t="b">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="b">
         <v>0</v>
@@ -2616,38 +2616,38 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.4</v>
+        <v>-10.4</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.333333333333333</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5.3592</v>
+        <v>5.6238</v>
       </c>
       <c r="BA11" t="n">
-        <v>4.277900000000001</v>
+        <v>4.6826</v>
       </c>
       <c r="BB11" t="n">
-        <v>480.7</v>
+        <v>565.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.407798647880554</v>
+        <v>6.058011531829834</v>
       </c>
       <c r="BD11" t="n">
-        <v>-27.40779864788055</v>
+        <v>28.94198846817017</v>
       </c>
       <c r="BE11" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
@@ -2656,18 +2656,18 @@
         </is>
       </c>
       <c r="BH11" t="n">
-        <v>-26</v>
+        <v>35</v>
       </c>
       <c r="BI11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ11" t="n">
-        <v>27.40779864788055</v>
+        <v>28.94198846817017</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2676,190 +2676,190 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>80.19999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>64.89999999999999</v>
+      </c>
+      <c r="S12" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="V12" t="n">
+        <v>50</v>
+      </c>
+      <c r="W12" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-66</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-7.199999999999999</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>4.946400000000001</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>4.602</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>514.8</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>3.383705615997314</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>-28.38370561599731</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
+      </c>
+      <c r="BH12" t="n">
+        <v>-25</v>
+      </c>
+      <c r="BI12" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="L12" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="M12" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>53</v>
-      </c>
-      <c r="O12" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>65.73333333333333</v>
-      </c>
-      <c r="S12" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>40</v>
-      </c>
-      <c r="W12" t="n">
-        <v>74</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>-25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>165</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>-4.067070484161377</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>27.06707048416138</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="BH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>-3</v>
-      </c>
       <c r="BJ12" t="n">
-        <v>27.06707048416138</v>
+        <v>28.38370561599731</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2868,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2880,64 +2880,64 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>82.53333333333335</v>
+        <v>72.80000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>85.7</v>
+        <v>68.05</v>
       </c>
       <c r="L13" t="n">
-        <v>83.3</v>
+        <v>90.2</v>
       </c>
       <c r="M13" t="n">
-        <v>31.2</v>
+        <v>19.4</v>
       </c>
       <c r="N13" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O13" t="n">
-        <v>69.5</v>
+        <v>71.7</v>
       </c>
       <c r="P13" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="R13" t="n">
-        <v>65.56666666666666</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="S13" t="n">
-        <v>84</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="U13" t="n">
-        <v>26.5</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W13" t="n">
-        <v>73.5</v>
+        <v>60.5</v>
       </c>
       <c r="X13" t="n">
-        <v>21.5</v>
+        <v>22.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.5</v>
+        <v>95.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="n">
-        <v>-27</v>
+        <v>-2</v>
       </c>
       <c r="AB13" t="b">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="b">
         <v>0</v>
       </c>
       <c r="AG13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="b">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="b">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AN13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" t="b">
         <v>0</v>
@@ -3000,58 +3000,58 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AW13" t="n">
-        <v>-10.4</v>
+        <v>-10.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.454545454545455</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.416666666666667</v>
+        <v>7.875</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.6238</v>
+        <v>7.0398</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.6826</v>
+        <v>7.2342</v>
       </c>
       <c r="BB13" t="n">
-        <v>565.5</v>
+        <v>752.4</v>
       </c>
       <c r="BC13" t="n">
-        <v>8.140048027038574</v>
+        <v>2.941282272338867</v>
       </c>
       <c r="BD13" t="n">
-        <v>26.85995197296143</v>
+        <v>28.05871772766113</v>
       </c>
       <c r="BE13" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="BH13" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="BI13" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BJ13" t="n">
-        <v>26.85995197296143</v>
+        <v>28.05871772766113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -3060,88 +3060,88 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>62.4</v>
+        <v>63.83333333333334</v>
       </c>
       <c r="K14" t="n">
-        <v>54</v>
+        <v>71.05</v>
       </c>
       <c r="L14" t="n">
-        <v>71.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="M14" t="n">
-        <v>16.5</v>
+        <v>20.9</v>
       </c>
       <c r="N14" t="n">
+        <v>65</v>
+      </c>
+      <c r="O14" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>67.53333333333333</v>
+      </c>
+      <c r="S14" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="T14" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="U14" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="V14" t="n">
         <v>44</v>
       </c>
-      <c r="O14" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>64.46666666666665</v>
-      </c>
-      <c r="S14" t="n">
-        <v>65.34999999999999</v>
-      </c>
-      <c r="T14" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>32</v>
-      </c>
       <c r="W14" t="n">
-        <v>50.7</v>
+        <v>53</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9</v>
+        <v>29.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>-33</v>
+        <v>47</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="b">
         <v>0</v>
       </c>
       <c r="AC14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="b">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="b">
         <v>0</v>
       </c>
       <c r="AL14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="b">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="AQ14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="b">
         <v>0</v>
@@ -3192,73 +3192,73 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-1.7</v>
+        <v>-10.8</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.266666666666666</v>
+        <v>10.125</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.933333333333334</v>
+        <v>12.375</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.0099</v>
+        <v>8.0694</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.1723</v>
+        <v>7.619400000000001</v>
       </c>
       <c r="BB14" t="n">
-        <v>702.0999999999999</v>
+        <v>1191.6</v>
       </c>
       <c r="BC14" t="n">
-        <v>-2.208293676376343</v>
+        <v>2.499644756317139</v>
       </c>
       <c r="BD14" t="n">
-        <v>-25.79170632362366</v>
+        <v>-27.49964475631714</v>
       </c>
       <c r="BE14" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="BH14" t="n">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="BI14" t="n">
-        <v>-3.5</v>
+        <v>-6</v>
       </c>
       <c r="BJ14" t="n">
-        <v>25.79170632362366</v>
+        <v>27.49964475631714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3267,175 +3267,175 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>73.83333333333334</v>
+      </c>
+      <c r="K15" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>27</v>
+      </c>
+      <c r="O15" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>69.53333333333333</v>
+      </c>
+      <c r="S15" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>47</v>
+      </c>
+      <c r="W15" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AW15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>80.19999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>23</v>
-      </c>
-      <c r="O15" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="R15" t="n">
-        <v>64.89999999999999</v>
-      </c>
-      <c r="S15" t="n">
-        <v>67.95</v>
-      </c>
-      <c r="T15" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="V15" t="n">
-        <v>50</v>
-      </c>
-      <c r="W15" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>-66</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>-14.4</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>-7.199999999999999</v>
-      </c>
       <c r="AX15" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AY15" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4.946400000000001</v>
+        <v>1.8</v>
       </c>
       <c r="BA15" t="n">
-        <v>4.602</v>
+        <v>0.5454</v>
       </c>
       <c r="BB15" t="n">
-        <v>514.8</v>
+        <v>100</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.6428335905075073</v>
+        <v>6.954058647155762</v>
       </c>
       <c r="BD15" t="n">
-        <v>-25.64283359050751</v>
+        <v>27.04594135284424</v>
       </c>
       <c r="BE15" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="BH15" t="n">
-        <v>-25</v>
+        <v>34</v>
       </c>
       <c r="BI15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ15" t="n">
-        <v>25.64283359050751</v>
+        <v>27.04594135284424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -3456,178 +3456,178 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>56.46666666666667</v>
+        <v>73.76666666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>64.55</v>
+        <v>68.05</v>
       </c>
       <c r="L16" t="n">
-        <v>65</v>
+        <v>83.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>26.3</v>
       </c>
       <c r="N16" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O16" t="n">
-        <v>58.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>24.5</v>
+        <v>14.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>89</v>
+        <v>62.8</v>
       </c>
       <c r="R16" t="n">
-        <v>75</v>
+        <v>76.60000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>85.2</v>
+        <v>75.5</v>
       </c>
       <c r="T16" t="n">
-        <v>85.5</v>
+        <v>71.8</v>
       </c>
       <c r="U16" t="n">
-        <v>26.1</v>
+        <v>25.3</v>
       </c>
       <c r="V16" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="W16" t="n">
-        <v>63.9</v>
+        <v>89.7</v>
       </c>
       <c r="X16" t="n">
-        <v>22.6</v>
+        <v>24.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>95.40000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Z16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>2.8686</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>2.9001</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>-1.399532437324524</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>-25.60046756267548</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="BH16" t="n">
         <v>-27</v>
       </c>
-      <c r="AA16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>8.166666666666668</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>12.83333333333333</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>5.439</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>6.4134</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>652.4</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>-0.3973540961742401</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>-25.60264590382576</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="BG16" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="BH16" t="n">
-        <v>-26</v>
-      </c>
       <c r="BI16" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="BJ16" t="n">
-        <v>25.60264590382576</v>
+        <v>25.60046756267548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3648,64 +3648,64 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>72.80000000000001</v>
+        <v>66.83333333333333</v>
       </c>
       <c r="K17" t="n">
-        <v>68.05</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>90.2</v>
+        <v>82</v>
       </c>
       <c r="M17" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O17" t="n">
-        <v>71.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>20.3</v>
+        <v>16.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.8</v>
+        <v>78.8</v>
       </c>
       <c r="R17" t="n">
-        <v>71.66666666666667</v>
+        <v>61</v>
       </c>
       <c r="S17" t="n">
-        <v>87.15000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="T17" t="n">
-        <v>90.3</v>
+        <v>60.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>19.1</v>
       </c>
       <c r="V17" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="W17" t="n">
-        <v>60.5</v>
+        <v>53.3</v>
       </c>
       <c r="X17" t="n">
-        <v>22.7</v>
+        <v>30.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>95.7</v>
+        <v>101.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="AA17" t="n">
-        <v>-2</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="b">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="b">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AN17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="b">
         <v>0</v>
@@ -3768,58 +3768,58 @@
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="AW17" t="n">
-        <v>-10.8</v>
+        <v>11.9</v>
       </c>
       <c r="AX17" t="n">
-        <v>9</v>
+        <v>13.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>7.875</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7.0398</v>
+        <v>8.6547</v>
       </c>
       <c r="BA17" t="n">
-        <v>7.2342</v>
+        <v>6.7813</v>
       </c>
       <c r="BB17" t="n">
-        <v>752.4</v>
+        <v>697</v>
       </c>
       <c r="BC17" t="n">
-        <v>5.712525367736816</v>
+        <v>4.466527938842773</v>
       </c>
       <c r="BD17" t="n">
-        <v>25.28747463226318</v>
+        <v>25.53347206115723</v>
       </c>
       <c r="BE17" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="BH17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BI17" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="BJ17" t="n">
-        <v>25.28747463226318</v>
+        <v>25.53347206115723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3843,175 +3843,175 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>82.56666666666668</v>
+      </c>
+      <c r="K18" t="n">
+        <v>82</v>
+      </c>
+      <c r="L18" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>74.36666666666666</v>
+      </c>
+      <c r="S18" t="n">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="T18" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="U18" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>29</v>
+      </c>
+      <c r="W18" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>-4.800000000000001</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.3808</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>2.4444</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2.355912208557129</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>-25.35591220855713</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
+      </c>
+      <c r="BH18" t="n">
+        <v>-23</v>
+      </c>
+      <c r="BI18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>59.43333333333334</v>
-      </c>
-      <c r="K18" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="L18" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="M18" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="N18" t="n">
-        <v>42</v>
-      </c>
-      <c r="O18" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>73.10000000000001</v>
-      </c>
-      <c r="S18" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="U18" t="n">
-        <v>23</v>
-      </c>
-      <c r="V18" t="n">
-        <v>39</v>
-      </c>
-      <c r="W18" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>5.142857142857142</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>3.857142857142856</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>2.0691</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>3.6945</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>486</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>4.028532981872559</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>-25.02853298187256</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="BH18" t="n">
-        <v>-21</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>-3</v>
-      </c>
       <c r="BJ18" t="n">
-        <v>25.02853298187256</v>
+        <v>25.35591220855713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4020,76 +4020,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>82.53333333333333</v>
+        <v>83.10000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>76.09999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="L19" t="n">
-        <v>73.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="N19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O19" t="n">
-        <v>63.2</v>
+        <v>64.3</v>
       </c>
       <c r="P19" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="R19" t="n">
+        <v>74.60000000000001</v>
+      </c>
+      <c r="S19" t="n">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="T19" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>21</v>
+      </c>
+      <c r="W19" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="X19" t="n">
         <v>22.6</v>
       </c>
-      <c r="Q19" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="R19" t="n">
-        <v>70.63333333333334</v>
-      </c>
-      <c r="S19" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="U19" t="n">
-        <v>26</v>
-      </c>
-      <c r="V19" t="n">
-        <v>14</v>
-      </c>
-      <c r="W19" t="n">
-        <v>85</v>
-      </c>
-      <c r="X19" t="n">
-        <v>19.5</v>
-      </c>
       <c r="Y19" t="n">
-        <v>76.7</v>
+        <v>90.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>-36</v>
+        <v>58</v>
       </c>
       <c r="AB19" t="b">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="AI19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="b">
         <v>0</v>
@@ -4152,58 +4152,58 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>9.6</v>
+        <v>3.3</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.6</v>
+        <v>4.4</v>
       </c>
       <c r="AX19" t="n">
-        <v>11.42857142857143</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8.425599999999999</v>
+        <v>5.3592</v>
       </c>
       <c r="BA19" t="n">
-        <v>6.4496</v>
+        <v>4.277900000000001</v>
       </c>
       <c r="BB19" t="n">
-        <v>796.8</v>
+        <v>480.7</v>
       </c>
       <c r="BC19" t="n">
-        <v>1.502737402915955</v>
+        <v>-0.7542380094528198</v>
       </c>
       <c r="BD19" t="n">
-        <v>24.49726259708405</v>
+        <v>-25.24576199054718</v>
       </c>
       <c r="BE19" t="n">
         <v>2021</v>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="BH19" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="BI19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ19" t="n">
-        <v>24.49726259708405</v>
+        <v>25.24576199054718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -4212,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -4224,64 +4224,64 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>73.76666666666667</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>68.05</v>
+        <v>82</v>
       </c>
       <c r="L20" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>46</v>
+      </c>
+      <c r="O20" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="P20" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="R20" t="n">
         <v>83.5</v>
       </c>
-      <c r="M20" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>28</v>
-      </c>
-      <c r="O20" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>76.60000000000001</v>
-      </c>
       <c r="S20" t="n">
-        <v>75.5</v>
+        <v>77.45</v>
       </c>
       <c r="T20" t="n">
-        <v>71.8</v>
+        <v>70.5</v>
       </c>
       <c r="U20" t="n">
-        <v>25.3</v>
+        <v>30.1</v>
       </c>
       <c r="V20" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="W20" t="n">
-        <v>89.7</v>
+        <v>73.2</v>
       </c>
       <c r="X20" t="n">
-        <v>24.9</v>
+        <v>20.8</v>
       </c>
       <c r="Y20" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AB20" t="b">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="b">
         <v>0</v>
@@ -4320,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="AN20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="b">
         <v>0</v>
@@ -4344,58 +4344,58 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW20" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>2.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="AY20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>6.3308</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>5.5034</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>655.1999999999999</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>3.009918689727783</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>24.99008131027222</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="BH20" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI20" t="n">
         <v>3.5</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>2.8686</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>2.9001</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>-2.601044178009033</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>-24.39895582199097</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="BG20" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BH20" t="n">
-        <v>-27</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ20" t="n">
-        <v>24.39895582199097</v>
+        <v>24.99008131027222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4416,64 +4416,64 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.53333333333335</v>
+        <v>56.46666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>85.7</v>
+        <v>64.55</v>
       </c>
       <c r="L21" t="n">
-        <v>83.3</v>
+        <v>65</v>
       </c>
       <c r="M21" t="n">
-        <v>31.2</v>
+        <v>15.2</v>
       </c>
       <c r="N21" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O21" t="n">
-        <v>69.5</v>
+        <v>58.7</v>
       </c>
       <c r="P21" t="n">
-        <v>21.1</v>
+        <v>24.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="R21" t="n">
-        <v>83.5</v>
+        <v>75</v>
       </c>
       <c r="S21" t="n">
-        <v>77.45</v>
+        <v>85.2</v>
       </c>
       <c r="T21" t="n">
-        <v>70.5</v>
+        <v>85.5</v>
       </c>
       <c r="U21" t="n">
-        <v>30.1</v>
+        <v>26.1</v>
       </c>
       <c r="V21" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="W21" t="n">
-        <v>73.2</v>
+        <v>63.9</v>
       </c>
       <c r="X21" t="n">
-        <v>20.8</v>
+        <v>22.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>85.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="b">
         <v>0</v>
@@ -4506,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="AL21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="b">
         <v>0</v>
       </c>
       <c r="AN21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="b">
         <v>0</v>
@@ -4536,58 +4536,58 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>5.439</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>6.4134</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>652.4</v>
       </c>
       <c r="BC21" t="n">
-        <v>7.853262901306152</v>
+        <v>-1.04585599899292</v>
       </c>
       <c r="BD21" t="n">
-        <v>-23.85326290130615</v>
+        <v>-24.95414400100708</v>
       </c>
       <c r="BE21" t="n">
         <v>2022</v>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="BH21" t="n">
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="BI21" t="n">
-        <v>-2.5</v>
+        <v>-7</v>
       </c>
       <c r="BJ21" t="n">
-        <v>23.85326290130615</v>
+        <v>24.95414400100708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -4596,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -4608,70 +4608,70 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>66.83333333333333</v>
+        <v>62.2</v>
       </c>
       <c r="K22" t="n">
-        <v>66.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="L22" t="n">
-        <v>82</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>17.5</v>
       </c>
       <c r="N22" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O22" t="n">
-        <v>78.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>16.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.8</v>
+        <v>93</v>
       </c>
       <c r="R22" t="n">
-        <v>61</v>
+        <v>76.26666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>54.1</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>60.4</v>
+        <v>79</v>
       </c>
       <c r="U22" t="n">
-        <v>19.1</v>
+        <v>26.1</v>
       </c>
       <c r="V22" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W22" t="n">
-        <v>53.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>30.9</v>
+        <v>20.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.9</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>89</v>
+        <v>-22</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>-21</v>
       </c>
       <c r="AB22" t="b">
         <v>0</v>
       </c>
       <c r="AC22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="AI22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" t="b">
         <v>0</v>
@@ -4728,58 +4728,58 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>11.9</v>
+        <v>2</v>
       </c>
       <c r="AX22" t="n">
-        <v>13.6</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AY22" t="n">
-        <v>11.33333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AZ22" t="n">
-        <v>8.6547</v>
+        <v>1.0812</v>
       </c>
       <c r="BA22" t="n">
-        <v>6.7813</v>
+        <v>1.4468</v>
       </c>
       <c r="BB22" t="n">
-        <v>697</v>
+        <v>132</v>
       </c>
       <c r="BC22" t="n">
-        <v>6.253169059753418</v>
+        <v>-0.4240946471691132</v>
       </c>
       <c r="BD22" t="n">
-        <v>23.74683094024658</v>
+        <v>24.42409464716911</v>
       </c>
       <c r="BE22" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="BG22" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="BH22" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="BI22" t="n">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="BJ22" t="n">
-        <v>23.74683094024658</v>
+        <v>24.42409464716911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -4788,79 +4788,79 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>73.83333333333334</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="K23" t="n">
-        <v>74.8</v>
+        <v>71.8</v>
       </c>
       <c r="L23" t="n">
-        <v>90.09999999999999</v>
+        <v>59.1</v>
       </c>
       <c r="M23" t="n">
-        <v>28.4</v>
+        <v>18.1</v>
       </c>
       <c r="N23" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O23" t="n">
-        <v>73.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>17</v>
+        <v>20.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.3</v>
+        <v>86.8</v>
       </c>
       <c r="R23" t="n">
-        <v>69.53333333333333</v>
+        <v>76.26666666666667</v>
       </c>
       <c r="S23" t="n">
-        <v>76.25</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="T23" t="n">
-        <v>90.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="U23" t="n">
-        <v>24.6</v>
+        <v>26.1</v>
       </c>
       <c r="V23" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="W23" t="n">
-        <v>70.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="X23" t="n">
-        <v>20.8</v>
+        <v>20.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>-31</v>
       </c>
       <c r="AA23" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
@@ -4881,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="AI23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="b">
         <v>0</v>
@@ -4902,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="b">
         <v>0</v>
@@ -4920,58 +4920,58 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="AW23" t="n">
-        <v>2</v>
+        <v>12.8</v>
       </c>
       <c r="AX23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="AZ23" t="n">
-        <v>1.8</v>
+        <v>5.5584</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.5454</v>
+        <v>5.8752</v>
       </c>
       <c r="BB23" t="n">
-        <v>100</v>
+        <v>644.8</v>
       </c>
       <c r="BC23" t="n">
-        <v>10.97423362731934</v>
+        <v>-1.162514209747314</v>
       </c>
       <c r="BD23" t="n">
-        <v>23.02576637268066</v>
+        <v>24.16251420974731</v>
       </c>
       <c r="BE23" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="BG23" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="BH23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BI23" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="BJ23" t="n">
-        <v>23.02576637268066</v>
+        <v>24.16251420974731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -4992,76 +4992,76 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>63.83333333333334</v>
+        <v>68.16666666666667</v>
       </c>
       <c r="K24" t="n">
-        <v>71.05</v>
+        <v>58.8</v>
       </c>
       <c r="L24" t="n">
-        <v>90.8</v>
+        <v>54.9</v>
       </c>
       <c r="M24" t="n">
-        <v>20.9</v>
+        <v>18.8</v>
       </c>
       <c r="N24" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O24" t="n">
-        <v>63.6</v>
+        <v>60.8</v>
       </c>
       <c r="P24" t="n">
-        <v>26.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.4</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>67.53333333333333</v>
+        <v>62.79999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>67.40000000000001</v>
+        <v>58.45</v>
       </c>
       <c r="T24" t="n">
-        <v>91.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="U24" t="n">
-        <v>24.7</v>
+        <v>18.1</v>
       </c>
       <c r="V24" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="W24" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="X24" t="n">
-        <v>29.6</v>
+        <v>18.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>100.4</v>
+        <v>79.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>47</v>
+        <v>-50</v>
       </c>
       <c r="AA24" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB24" t="b">
         <v>0</v>
       </c>
       <c r="AC24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="b">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="AI24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="b">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="b">
         <v>0</v>
@@ -5097,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="b">
         <v>0</v>
@@ -5112,58 +5112,58 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>-10.8</v>
+        <v>-3.3</v>
       </c>
       <c r="AW24" t="n">
-        <v>-3.6</v>
+        <v>11</v>
       </c>
       <c r="AX24" t="n">
-        <v>10.125</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="AY24" t="n">
-        <v>12.375</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8.0694</v>
+        <v>4.8785</v>
       </c>
       <c r="BA24" t="n">
-        <v>7.619400000000001</v>
+        <v>5.1612</v>
       </c>
       <c r="BB24" t="n">
-        <v>1191.6</v>
+        <v>507.1</v>
       </c>
       <c r="BC24" t="n">
-        <v>-2.275732040405273</v>
+        <v>-0.4025668799877167</v>
       </c>
       <c r="BD24" t="n">
-        <v>-22.72426795959473</v>
+        <v>-23.59743312001228</v>
       </c>
       <c r="BE24" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="BG24" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="BH24" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="BI24" t="n">
-        <v>-6</v>
+        <v>-10.5</v>
       </c>
       <c r="BJ24" t="n">
-        <v>22.72426795959473</v>
+        <v>23.59743312001228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -5175,187 +5175,187 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>77.03333333333335</v>
+      </c>
+      <c r="K25" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>28</v>
+      </c>
+      <c r="O25" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>69.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="U25" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>36</v>
+      </c>
+      <c r="W25" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1.9565</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>235</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>5.961321353912354</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>23.03867864608765</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="BH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="BI25" t="n">
         <v>3</v>
       </c>
-      <c r="J25" t="n">
-        <v>72.66666666666667</v>
-      </c>
-      <c r="K25" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>38</v>
-      </c>
-      <c r="O25" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="P25" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="R25" t="n">
-        <v>76.26666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="T25" t="n">
-        <v>79</v>
-      </c>
-      <c r="U25" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>44</v>
-      </c>
-      <c r="W25" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="X25" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>9.142857142857142</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>5.5584</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>5.8752</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>644.8</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.7998036742210388</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>22.20019632577896</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>2023</v>
-      </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="BG25" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="BH25" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>-3</v>
-      </c>
       <c r="BJ25" t="n">
-        <v>22.20019632577896</v>
+        <v>23.03867864608765</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -5364,190 +5364,190 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>76.60000000000001</v>
+        <v>59.43333333333334</v>
       </c>
       <c r="K26" t="n">
-        <v>75.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>71.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>25.3</v>
+        <v>17.4</v>
       </c>
       <c r="N26" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O26" t="n">
-        <v>89.7</v>
+        <v>85.2</v>
       </c>
       <c r="P26" t="n">
-        <v>24.9</v>
+        <v>18.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>85.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="R26" t="n">
-        <v>61</v>
+        <v>73.10000000000001</v>
       </c>
       <c r="S26" t="n">
-        <v>54.1</v>
+        <v>61.8</v>
       </c>
       <c r="T26" t="n">
-        <v>60.4</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="U26" t="n">
-        <v>19.1</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="W26" t="n">
-        <v>53.3</v>
+        <v>60.5</v>
       </c>
       <c r="X26" t="n">
-        <v>30.9</v>
+        <v>22.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.9</v>
+        <v>88</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5.142857142857142</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>3.857142857142856</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.0691</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>3.6945</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>486</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.84382951259613</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>-22.84382951259613</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
+      </c>
+      <c r="BH26" t="n">
+        <v>-21</v>
+      </c>
+      <c r="BI26" t="n">
         <v>-3</v>
       </c>
-      <c r="AB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>2.3405</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>2.347</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>-3.839033603668213</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>-22.16096639633179</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>2020</v>
-      </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-      <c r="BG26" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="BH26" t="n">
-        <v>-26</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>7.5</v>
-      </c>
       <c r="BJ26" t="n">
-        <v>22.16096639633179</v>
+        <v>22.84382951259613</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -5556,76 +5556,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>75.03333333333335</v>
+        <v>74.16666666666667</v>
       </c>
       <c r="K27" t="n">
-        <v>68.5</v>
+        <v>70.95</v>
       </c>
       <c r="L27" t="n">
-        <v>90.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="M27" t="n">
-        <v>23.6</v>
+        <v>28.4</v>
       </c>
       <c r="N27" t="n">
+        <v>33</v>
+      </c>
+      <c r="O27" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="R27" t="n">
+        <v>59.43333333333334</v>
+      </c>
+      <c r="S27" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="T27" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="V27" t="n">
         <v>42</v>
       </c>
-      <c r="O27" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="P27" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>66.39999999999999</v>
-      </c>
-      <c r="S27" t="n">
-        <v>66.05</v>
-      </c>
-      <c r="T27" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="V27" t="n">
-        <v>48</v>
-      </c>
       <c r="W27" t="n">
-        <v>60.2</v>
+        <v>85.2</v>
       </c>
       <c r="X27" t="n">
-        <v>26.5</v>
+        <v>18.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.09999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>-40</v>
+        <v>-1</v>
       </c>
       <c r="AA27" t="n">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="AB27" t="b">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="AF27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="b">
         <v>0</v>
@@ -5688,58 +5688,58 @@
         <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>-2.4</v>
+        <v>1.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>3.6</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.9284</v>
+        <v>5.408700000000001</v>
       </c>
       <c r="BA27" t="n">
-        <v>2.2374</v>
+        <v>2.75</v>
       </c>
       <c r="BB27" t="n">
-        <v>264</v>
+        <v>541.2</v>
       </c>
       <c r="BC27" t="n">
-        <v>-2.172211408615112</v>
+        <v>3.509861469268799</v>
       </c>
       <c r="BD27" t="n">
-        <v>-20.82778859138489</v>
+        <v>22.4901385307312</v>
       </c>
       <c r="BE27" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BG27" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="BH27" t="n">
-        <v>-23</v>
+        <v>26</v>
       </c>
       <c r="BI27" t="n">
-        <v>-3.5</v>
+        <v>8.5</v>
       </c>
       <c r="BJ27" t="n">
-        <v>20.82778859138489</v>
+        <v>22.4901385307312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5760,64 +5760,64 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>78.09999999999999</v>
+        <v>75.03333333333335</v>
       </c>
       <c r="K28" t="n">
-        <v>82</v>
+        <v>68.5</v>
       </c>
       <c r="L28" t="n">
-        <v>76.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="N28" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O28" t="n">
-        <v>73.59999999999999</v>
+        <v>42.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>32.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.59999999999999</v>
+        <v>112.4</v>
       </c>
       <c r="R28" t="n">
-        <v>83.5</v>
+        <v>66.39999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>77.45</v>
+        <v>66.05</v>
       </c>
       <c r="T28" t="n">
-        <v>70.5</v>
+        <v>90.2</v>
       </c>
       <c r="U28" t="n">
-        <v>30.1</v>
+        <v>19.4</v>
       </c>
       <c r="V28" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="W28" t="n">
-        <v>73.2</v>
+        <v>60.2</v>
       </c>
       <c r="X28" t="n">
-        <v>20.8</v>
+        <v>26.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>80</v>
+        <v>-40</v>
       </c>
       <c r="AA28" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="AB28" t="b">
         <v>0</v>
@@ -5832,16 +5832,16 @@
         <v>0</v>
       </c>
       <c r="AF28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AH28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="b">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="AN28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="b">
         <v>0</v>
@@ -5880,58 +5880,58 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="AZ28" t="n">
-        <v>6.3308</v>
+        <v>1.9284</v>
       </c>
       <c r="BA28" t="n">
-        <v>5.5034</v>
+        <v>2.2374</v>
       </c>
       <c r="BB28" t="n">
-        <v>655.1999999999999</v>
+        <v>264</v>
       </c>
       <c r="BC28" t="n">
-        <v>7.442373752593994</v>
+        <v>-1.606891512870789</v>
       </c>
       <c r="BD28" t="n">
-        <v>20.55762624740601</v>
+        <v>-21.39310848712921</v>
       </c>
       <c r="BE28" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="BG28" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="BH28" t="n">
-        <v>28</v>
+        <v>-23</v>
       </c>
       <c r="BI28" t="n">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="BJ28" t="n">
-        <v>20.55762624740601</v>
+        <v>21.39310848712921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -5940,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -5952,67 +5952,67 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
       <c r="J29" t="n">
-        <v>82.56666666666668</v>
+        <v>61.5</v>
       </c>
       <c r="K29" t="n">
-        <v>82</v>
+        <v>63.1</v>
       </c>
       <c r="L29" t="n">
-        <v>85.3</v>
+        <v>60.2</v>
       </c>
       <c r="M29" t="n">
-        <v>25.5</v>
+        <v>21.3</v>
       </c>
       <c r="N29" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="O29" t="n">
-        <v>64.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>26.2</v>
+        <v>29.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.8</v>
+        <v>88</v>
       </c>
       <c r="R29" t="n">
-        <v>74.36666666666666</v>
+        <v>71.26666666666667</v>
       </c>
       <c r="S29" t="n">
-        <v>68.30000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="T29" t="n">
-        <v>90.09999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="U29" t="n">
-        <v>25.6</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="W29" t="n">
-        <v>54.2</v>
+        <v>59.8</v>
       </c>
       <c r="X29" t="n">
-        <v>22.9</v>
+        <v>26.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>28</v>
+        <v>-43</v>
       </c>
       <c r="AA29" t="n">
-        <v>62</v>
+        <v>-12</v>
       </c>
       <c r="AB29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="b">
         <v>0</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="AG29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="b">
         <v>0</v>
@@ -6045,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="AM29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29" t="b">
         <v>0</v>
       </c>
       <c r="AO29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" t="b">
         <v>0</v>
@@ -6072,58 +6072,58 @@
         <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>7.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="AW29" t="n">
-        <v>-4.800000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="AX29" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AY29" t="n">
-        <v>6</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="AZ29" t="n">
-        <v>2.3808</v>
+        <v>4.5518</v>
       </c>
       <c r="BA29" t="n">
-        <v>2.4444</v>
+        <v>4.5177</v>
       </c>
       <c r="BB29" t="n">
-        <v>338.4</v>
+        <v>635.8</v>
       </c>
       <c r="BC29" t="n">
-        <v>-2.651281118392944</v>
+        <v>-0.8635104298591614</v>
       </c>
       <c r="BD29" t="n">
-        <v>-20.34871888160706</v>
+        <v>20.86351042985916</v>
       </c>
       <c r="BE29" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="BG29" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="BH29" t="n">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="BI29" t="n">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="BJ29" t="n">
-        <v>20.34871888160706</v>
+        <v>20.86351042985916</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -6138,82 +6138,82 @@
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>81.63333333333334</v>
+        <v>69.53333333333335</v>
       </c>
       <c r="K30" t="n">
-        <v>66.94999999999999</v>
+        <v>64.05</v>
       </c>
       <c r="L30" t="n">
-        <v>84.8</v>
+        <v>74.5</v>
       </c>
       <c r="M30" t="n">
-        <v>24</v>
+        <v>21.3</v>
       </c>
       <c r="N30" t="n">
+        <v>43</v>
+      </c>
+      <c r="O30" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>69</v>
+      </c>
+      <c r="S30" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="T30" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="U30" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="V30" t="n">
         <v>50</v>
       </c>
-      <c r="O30" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="P30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>109.6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>68.16666666666667</v>
-      </c>
-      <c r="S30" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="U30" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="V30" t="n">
-        <v>36</v>
-      </c>
       <c r="W30" t="n">
-        <v>53.5</v>
+        <v>62.7</v>
       </c>
       <c r="X30" t="n">
-        <v>25.1</v>
+        <v>27.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>98.40000000000001</v>
+        <v>109.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>24</v>
+        <v>-21</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
       </c>
       <c r="AC30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="b">
         <v>0</v>
@@ -6240,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="AN30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30" t="b">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="AR30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="b">
         <v>0</v>
@@ -6264,58 +6264,58 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>-4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5.833333333333334</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>5.5818</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>823.1999999999999</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.648812651634216</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>-20.64881265163422</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
+      </c>
+      <c r="BH30" t="n">
+        <v>-19</v>
+      </c>
+      <c r="BI30" t="n">
         <v>-3</v>
       </c>
-      <c r="AX30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>1.7142</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>1.2414</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>4.852313995361328</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>-19.85231399536133</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="BF30" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="BG30" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="BH30" t="n">
-        <v>-15</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>-8</v>
-      </c>
       <c r="BJ30" t="n">
-        <v>19.85231399536133</v>
+        <v>20.64881265163422</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6339,61 +6339,61 @@
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>65.59999999999999</v>
+        <v>68.06666666666666</v>
       </c>
       <c r="K31" t="n">
-        <v>76.75</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>90.3</v>
+        <v>65.7</v>
       </c>
       <c r="M31" t="n">
-        <v>23.3</v>
+        <v>17.6</v>
       </c>
       <c r="N31" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O31" t="n">
-        <v>74.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>23.1</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="R31" t="n">
-        <v>65.06666666666666</v>
+        <v>66.83333333333333</v>
       </c>
       <c r="S31" t="n">
-        <v>68.15000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="T31" t="n">
-        <v>76.7</v>
+        <v>82</v>
       </c>
       <c r="U31" t="n">
-        <v>17.5</v>
+        <v>19.6</v>
       </c>
       <c r="V31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W31" t="n">
-        <v>67.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>22.3</v>
+        <v>16.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2</v>
+        <v>78.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>-31</v>
+        <v>-47</v>
       </c>
       <c r="AA31" t="n">
-        <v>-60</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="b">
         <v>0</v>
@@ -6402,13 +6402,13 @@
         <v>0</v>
       </c>
       <c r="AD31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
       <c r="AF31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="b">
         <v>0</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="b">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AQ31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="b">
         <v>0</v>
@@ -6456,53 +6456,53 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>-3.4</v>
+        <v>-21</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.666666666666666</v>
+        <v>5.769230769230768</v>
       </c>
       <c r="AY31" t="n">
-        <v>4.533333333333334</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5.8803</v>
+        <v>5.637</v>
       </c>
       <c r="BA31" t="n">
-        <v>6.480399999999999</v>
+        <v>7.401</v>
       </c>
       <c r="BB31" t="n">
-        <v>710.5999999999999</v>
+        <v>951</v>
       </c>
       <c r="BC31" t="n">
-        <v>6.254959106445312</v>
+        <v>-8.952254295349121</v>
       </c>
       <c r="BD31" t="n">
-        <v>19.74504089355469</v>
+        <v>-20.04774570465088</v>
       </c>
       <c r="BE31" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="BG31" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="BH31" t="n">
-        <v>26</v>
+        <v>-29</v>
       </c>
       <c r="BI31" t="n">
-        <v>6.5</v>
+        <v>-6</v>
       </c>
       <c r="BJ31" t="n">
-        <v>19.74504089355469</v>
+        <v>20.04774570465088</v>
       </c>
     </row>
   </sheetData>
